--- a/enunciado/Listado equipos.xlsx
+++ b/enunciado/Listado equipos.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camel\Google Drive\Curso Vapor\Proyecto Final\Nutricion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime\Documents\JAIME\Sistemas de Vapor\TrabajoFinal\Pvapor\enunciado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C4178A-A80C-4263-9C1E-E77EEDDF1F25}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224ADA54-4B20-4BC2-BE87-60CBA09D0CB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="480" yWindow="90" windowWidth="15480" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Previstas" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Previstas!$A$13:$AB$194</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Previstas!$A$1:$AB$195</definedName>
     <definedName name="BuiltIn_AutoFilter___1">#REF!</definedName>
     <definedName name="BuiltIn_AutoFilter___1_1">#REF!</definedName>
     <definedName name="BuiltIn_AutoFilter___1_2">#REF!</definedName>
@@ -25,6 +24,7 @@
     <definedName name="BuiltIn_AutoFilter___1_4">Previstas!$A$9:$E$11</definedName>
     <definedName name="BuiltIn_AutoFilter___1_5">Previstas!$A$9:$E$11</definedName>
     <definedName name="BuiltIn_AutoFilter___1_6">Previstas!$A$9:$E$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Previstas!$A$1:$AB$195</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Previstas!$1:$11</definedName>
     <definedName name="unnamed">#REF!</definedName>
     <definedName name="unnamed_1">Previstas!$A$9:$E$9</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="432">
   <si>
     <t>ITEM</t>
   </si>
@@ -1338,6 +1338,9 @@
   </si>
   <si>
     <t>S46</t>
+  </si>
+  <si>
+    <t>SE REQUIERE ESTACION REGULACION DE VAPOR. ADEMAS EL DRENAJE DEBE DE SER CON TUBERIA PARA ALTA TEMPERATURA O (HIERRO NEGRO). CONEXIÓN REQUIERE DESCONECTADOR CON COLA DE CABLE CON BIEX DE 1,5METROS. TEMP.MAXIMA 100°C.accion directa, vallvula de regulacion de presion. MAximo psi--para las marmitas</t>
   </si>
 </sst>
 </file>
@@ -2362,10 +2365,67 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2385,15 +2445,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2421,54 +2472,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6478,7 +6481,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6801,46 +6804,46 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:GN194"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="11" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="1" tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="5" ySplit="11" topLeftCell="F144" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H91" sqref="H91"/>
+      <selection pane="bottomRight" activeCell="AA145" sqref="AA145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="42" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" customWidth="1"/>
-    <col min="5" max="5" width="3.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
-    <col min="7" max="8" width="5.5703125" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="42" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" customWidth="1"/>
+    <col min="5" max="5" width="3.109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" customWidth="1"/>
+    <col min="7" max="8" width="5.5546875" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="6" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="4" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="3" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="2.6640625" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="3" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="3.5703125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5703125" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="4.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.5546875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5546875" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="4.6640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="5.5703125" hidden="1" customWidth="1"/>
-    <col min="25" max="26" width="6.42578125" customWidth="1"/>
-    <col min="27" max="27" width="41.5703125" style="99" customWidth="1"/>
-    <col min="28" max="28" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.5546875" hidden="1" customWidth="1"/>
+    <col min="25" max="26" width="6.44140625" customWidth="1"/>
+    <col min="27" max="27" width="41.5546875" style="99" customWidth="1"/>
+    <col min="28" max="28" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:196" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="122"/>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
+    <row r="1" spans="1:196" s="1" customFormat="1" ht="24.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="117"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
       <c r="D1" s="14"/>
       <c r="E1" s="43"/>
       <c r="F1" s="18"/>
@@ -7035,7 +7038,7 @@
       <c r="GM1" s="2"/>
       <c r="GN1" s="2"/>
     </row>
-    <row r="2" spans="1:196" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:196" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="40"/>
@@ -7233,13 +7236,13 @@
       <c r="GM2" s="2"/>
       <c r="GN2" s="2"/>
     </row>
-    <row r="3" spans="1:196" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="102" t="s">
+    <row r="3" spans="1:196" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
       <c r="E3" s="44"/>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
@@ -7433,11 +7436,11 @@
       <c r="GM3" s="2"/>
       <c r="GN3" s="2"/>
     </row>
-    <row r="4" spans="1:196" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="102"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
+    <row r="4" spans="1:196" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="119"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
       <c r="E4" s="44"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
@@ -7631,13 +7634,13 @@
       <c r="GM4" s="2"/>
       <c r="GN4" s="2"/>
     </row>
-    <row r="5" spans="1:196" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="102" t="s">
+    <row r="5" spans="1:196" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
       <c r="E5" s="44"/>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
@@ -7831,13 +7834,13 @@
       <c r="GM5" s="2"/>
       <c r="GN5" s="2"/>
     </row>
-    <row r="6" spans="1:196" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="124" t="s">
+    <row r="6" spans="1:196" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
       <c r="E6" s="44"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
@@ -8031,11 +8034,11 @@
       <c r="GM6" s="2"/>
       <c r="GN6" s="2"/>
     </row>
-    <row r="7" spans="1:196" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="102"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
+    <row r="7" spans="1:196" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="119"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
       <c r="E7" s="44"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
@@ -8229,11 +8232,11 @@
       <c r="GM7" s="2"/>
       <c r="GN7" s="2"/>
     </row>
-    <row r="8" spans="1:196" s="1" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="102"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
+    <row r="8" spans="1:196" s="1" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="119"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
       <c r="E8" s="44"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
@@ -8427,47 +8430,47 @@
       <c r="GM8" s="2"/>
       <c r="GN8" s="2"/>
     </row>
-    <row r="9" spans="1:196" s="1" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="129" t="s">
+    <row r="9" spans="1:196" s="1" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="113" t="s">
+      <c r="D9" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="132" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="119"/>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="119"/>
-      <c r="S9" s="119"/>
-      <c r="T9" s="119"/>
-      <c r="U9" s="119"/>
-      <c r="V9" s="119"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="135"/>
+      <c r="L9" s="135"/>
+      <c r="M9" s="135"/>
+      <c r="N9" s="135"/>
+      <c r="O9" s="135"/>
+      <c r="P9" s="135"/>
+      <c r="Q9" s="135"/>
+      <c r="R9" s="135"/>
+      <c r="S9" s="135"/>
+      <c r="T9" s="135"/>
+      <c r="U9" s="135"/>
+      <c r="V9" s="135"/>
       <c r="W9" s="91"/>
       <c r="X9" s="91"/>
       <c r="Y9" s="46"/>
       <c r="Z9" s="46"/>
-      <c r="AA9" s="107" t="s">
+      <c r="AA9" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="AB9" s="126" t="s">
+      <c r="AB9" s="102" t="s">
         <v>0</v>
       </c>
       <c r="AC9" s="2"/>
@@ -8639,47 +8642,47 @@
       <c r="GM9" s="2"/>
       <c r="GN9" s="2"/>
     </row>
-    <row r="10" spans="1:196" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="130"/>
-      <c r="B10" s="133"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="110" t="s">
+    <row r="10" spans="1:196" s="1" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="109"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="111"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="110" t="s">
+      <c r="G10" s="106"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="111"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="110" t="s">
+      <c r="J10" s="106"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="110" t="s">
+      <c r="M10" s="106"/>
+      <c r="N10" s="106"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="106"/>
+      <c r="T10" s="105" t="s">
         <v>419</v>
       </c>
-      <c r="U10" s="111"/>
-      <c r="V10" s="111"/>
-      <c r="W10" s="120" t="s">
+      <c r="U10" s="106"/>
+      <c r="V10" s="106"/>
+      <c r="W10" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="X10" s="121"/>
-      <c r="Y10" s="110" t="s">
+      <c r="X10" s="137"/>
+      <c r="Y10" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="Z10" s="111"/>
-      <c r="AA10" s="108"/>
-      <c r="AB10" s="127"/>
+      <c r="Z10" s="106"/>
+      <c r="AA10" s="127"/>
+      <c r="AB10" s="103"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -8849,12 +8852,12 @@
       <c r="GM10" s="2"/>
       <c r="GN10" s="2"/>
     </row>
-    <row r="11" spans="1:196" s="12" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="131"/>
-      <c r="B11" s="134"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="118"/>
+    <row r="11" spans="1:196" s="12" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="110"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="134"/>
       <c r="F11" s="3" t="s">
         <v>17</v>
       </c>
@@ -8918,8 +8921,8 @@
       <c r="Z11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AA11" s="109"/>
-      <c r="AB11" s="128"/>
+      <c r="AA11" s="128"/>
+      <c r="AB11" s="104"/>
       <c r="AC11" s="11"/>
       <c r="AD11" s="11"/>
       <c r="AE11" s="11"/>
@@ -9089,12 +9092,12 @@
       <c r="GM11" s="11"/>
       <c r="GN11" s="11"/>
     </row>
-    <row r="12" spans="1:196" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="104" t="s">
+    <row r="12" spans="1:196" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="105"/>
-      <c r="C12" s="106"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="125"/>
       <c r="D12" s="25"/>
       <c r="E12" s="26"/>
       <c r="F12" s="31"/>
@@ -9121,7 +9124,7 @@
       <c r="AA12" s="93"/>
       <c r="AB12" s="47"/>
     </row>
-    <row r="13" spans="1:196" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:196" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" s="23"/>
       <c r="C13" s="41"/>
@@ -9151,7 +9154,7 @@
       <c r="AA13" s="94"/>
       <c r="AB13" s="10"/>
     </row>
-    <row r="14" spans="1:196" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:196" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
         <v>41</v>
       </c>
@@ -9193,7 +9196,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:196" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:196" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="72"/>
       <c r="B15" s="73"/>
       <c r="C15" s="74"/>
@@ -9223,7 +9226,7 @@
       <c r="AA15" s="96"/>
       <c r="AB15" s="72"/>
     </row>
-    <row r="16" spans="1:196" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:196" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
         <v>35</v>
       </c>
@@ -9265,7 +9268,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="72"/>
       <c r="B17" s="73"/>
       <c r="C17" s="74"/>
@@ -9295,7 +9298,7 @@
       <c r="AA17" s="96"/>
       <c r="AB17" s="72"/>
     </row>
-    <row r="18" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>40</v>
       </c>
@@ -9337,7 +9340,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="72"/>
       <c r="B19" s="73"/>
       <c r="C19" s="74"/>
@@ -9367,7 +9370,7 @@
       <c r="AA19" s="96"/>
       <c r="AB19" s="72"/>
     </row>
-    <row r="20" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
         <v>47</v>
       </c>
@@ -9421,7 +9424,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="72"/>
       <c r="B21" s="73"/>
       <c r="C21" s="74"/>
@@ -9451,7 +9454,7 @@
       <c r="AA21" s="96"/>
       <c r="AB21" s="72"/>
     </row>
-    <row r="22" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>45</v>
       </c>
@@ -9503,7 +9506,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>45</v>
       </c>
@@ -9545,7 +9548,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="72"/>
       <c r="B24" s="73"/>
       <c r="C24" s="74"/>
@@ -9575,7 +9578,7 @@
       <c r="AA24" s="96"/>
       <c r="AB24" s="72"/>
     </row>
-    <row r="25" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>52</v>
       </c>
@@ -9627,7 +9630,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="72"/>
       <c r="B26" s="73"/>
       <c r="C26" s="74"/>
@@ -9657,7 +9660,7 @@
       <c r="AA26" s="96"/>
       <c r="AB26" s="72"/>
     </row>
-    <row r="27" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
         <v>57</v>
       </c>
@@ -9699,7 +9702,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="72"/>
       <c r="B28" s="73"/>
       <c r="C28" s="74"/>
@@ -9729,7 +9732,7 @@
       <c r="AA28" s="96"/>
       <c r="AB28" s="72"/>
     </row>
-    <row r="29" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" s="59" customFormat="1" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
         <v>63</v>
       </c>
@@ -9791,7 +9794,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="72"/>
       <c r="B30" s="73"/>
       <c r="C30" s="74"/>
@@ -9821,7 +9824,7 @@
       <c r="AA30" s="96"/>
       <c r="AB30" s="72"/>
     </row>
-    <row r="31" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
         <v>48</v>
       </c>
@@ -9875,7 +9878,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="72"/>
       <c r="B32" s="73"/>
       <c r="C32" s="74"/>
@@ -9905,7 +9908,7 @@
       <c r="AA32" s="96"/>
       <c r="AB32" s="72"/>
     </row>
-    <row r="33" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
         <v>304</v>
       </c>
@@ -9959,7 +9962,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="34" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
         <v>303</v>
       </c>
@@ -10001,7 +10004,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="35" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="72"/>
       <c r="B35" s="73"/>
       <c r="C35" s="74"/>
@@ -10031,7 +10034,7 @@
       <c r="AA35" s="96"/>
       <c r="AB35" s="72"/>
     </row>
-    <row r="36" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>51</v>
       </c>
@@ -10083,7 +10086,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="72"/>
       <c r="B37" s="73"/>
       <c r="C37" s="74"/>
@@ -10113,7 +10116,7 @@
       <c r="AA37" s="96"/>
       <c r="AB37" s="72"/>
     </row>
-    <row r="38" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
         <v>306</v>
       </c>
@@ -10155,7 +10158,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="39" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
         <v>60</v>
       </c>
@@ -10209,7 +10212,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
         <v>301</v>
       </c>
@@ -10251,7 +10254,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="41" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="72"/>
       <c r="B41" s="73"/>
       <c r="C41" s="74"/>
@@ -10281,7 +10284,7 @@
       <c r="AA41" s="96"/>
       <c r="AB41" s="72"/>
     </row>
-    <row r="42" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
         <v>69</v>
       </c>
@@ -10335,7 +10338,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="72"/>
       <c r="B43" s="73"/>
       <c r="C43" s="74"/>
@@ -10365,7 +10368,7 @@
       <c r="AA43" s="96"/>
       <c r="AB43" s="72"/>
     </row>
-    <row r="44" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
         <v>65</v>
       </c>
@@ -10417,7 +10420,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="72"/>
       <c r="B45" s="73"/>
       <c r="C45" s="74"/>
@@ -10447,7 +10450,7 @@
       <c r="AA45" s="96"/>
       <c r="AB45" s="72"/>
     </row>
-    <row r="46" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
         <v>39</v>
       </c>
@@ -10501,7 +10504,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="72"/>
       <c r="B47" s="73"/>
       <c r="C47" s="74"/>
@@ -10531,7 +10534,7 @@
       <c r="AA47" s="96"/>
       <c r="AB47" s="72"/>
     </row>
-    <row r="48" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
         <v>56</v>
       </c>
@@ -10583,7 +10586,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="72"/>
       <c r="B49" s="73"/>
       <c r="C49" s="74"/>
@@ -10613,7 +10616,7 @@
       <c r="AA49" s="96"/>
       <c r="AB49" s="72"/>
     </row>
-    <row r="50" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
         <v>44</v>
       </c>
@@ -10665,7 +10668,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="72"/>
       <c r="B51" s="73"/>
       <c r="C51" s="74"/>
@@ -10695,7 +10698,7 @@
       <c r="AA51" s="96"/>
       <c r="AB51" s="72"/>
     </row>
-    <row r="52" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
         <v>67</v>
       </c>
@@ -10749,7 +10752,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="72"/>
       <c r="B53" s="73"/>
       <c r="C53" s="74"/>
@@ -10779,7 +10782,7 @@
       <c r="AA53" s="96"/>
       <c r="AB53" s="72"/>
     </row>
-    <row r="54" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
         <v>73</v>
       </c>
@@ -10825,7 +10828,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
         <v>74</v>
       </c>
@@ -10871,7 +10874,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="72"/>
       <c r="B56" s="73"/>
       <c r="C56" s="74"/>
@@ -10901,7 +10904,7 @@
       <c r="AA56" s="96"/>
       <c r="AB56" s="72"/>
     </row>
-    <row r="57" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
         <v>310</v>
       </c>
@@ -10953,7 +10956,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="58" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
         <v>311</v>
       </c>
@@ -10995,7 +10998,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="59" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="72"/>
       <c r="B59" s="73"/>
       <c r="C59" s="74"/>
@@ -11025,7 +11028,7 @@
       <c r="AA59" s="96"/>
       <c r="AB59" s="72"/>
     </row>
-    <row r="60" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
         <v>58</v>
       </c>
@@ -11067,7 +11070,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="72"/>
       <c r="B61" s="73"/>
       <c r="C61" s="74"/>
@@ -11097,7 +11100,7 @@
       <c r="AA61" s="96"/>
       <c r="AB61" s="72"/>
     </row>
-    <row r="62" spans="1:28" s="87" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" s="87" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>76</v>
       </c>
@@ -11147,7 +11150,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="72"/>
       <c r="B63" s="73"/>
       <c r="C63" s="74"/>
@@ -11177,7 +11180,7 @@
       <c r="AA63" s="96"/>
       <c r="AB63" s="72"/>
     </row>
-    <row r="64" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="69" t="s">
         <v>237</v>
       </c>
@@ -11227,7 +11230,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="72"/>
       <c r="B65" s="73"/>
       <c r="C65" s="74"/>
@@ -11257,7 +11260,7 @@
       <c r="AA65" s="96"/>
       <c r="AB65" s="72"/>
     </row>
-    <row r="66" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
         <v>87</v>
       </c>
@@ -11307,7 +11310,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="72"/>
       <c r="B67" s="73"/>
       <c r="C67" s="74"/>
@@ -11337,7 +11340,7 @@
       <c r="AA67" s="96"/>
       <c r="AB67" s="72"/>
     </row>
-    <row r="68" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
         <v>91</v>
       </c>
@@ -11387,7 +11390,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="72"/>
       <c r="B69" s="73"/>
       <c r="C69" s="74"/>
@@ -11417,7 +11420,7 @@
       <c r="AA69" s="96"/>
       <c r="AB69" s="72"/>
     </row>
-    <row r="70" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
         <v>108</v>
       </c>
@@ -11467,7 +11470,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="72"/>
       <c r="B71" s="73"/>
       <c r="C71" s="74"/>
@@ -11497,7 +11500,7 @@
       <c r="AA71" s="96"/>
       <c r="AB71" s="72"/>
     </row>
-    <row r="72" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
         <v>163</v>
       </c>
@@ -11547,7 +11550,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="73" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="72"/>
       <c r="B73" s="73"/>
       <c r="C73" s="74"/>
@@ -11577,7 +11580,7 @@
       <c r="AA73" s="96"/>
       <c r="AB73" s="72"/>
     </row>
-    <row r="74" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28" s="59" customFormat="1" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="69" t="s">
         <v>266</v>
       </c>
@@ -11631,7 +11634,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="75" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>247</v>
       </c>
@@ -11683,7 +11686,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="76" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
         <v>255</v>
       </c>
@@ -11725,7 +11728,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="77" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
         <v>262</v>
       </c>
@@ -11767,7 +11770,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="78" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="72"/>
       <c r="B78" s="73"/>
       <c r="C78" s="74"/>
@@ -11797,7 +11800,7 @@
       <c r="AA78" s="96"/>
       <c r="AB78" s="72"/>
     </row>
-    <row r="79" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="48" t="s">
         <v>214</v>
       </c>
@@ -11839,7 +11842,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="80" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="48" t="s">
         <v>215</v>
       </c>
@@ -11891,7 +11894,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="81" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="48" t="s">
         <v>216</v>
       </c>
@@ -11933,7 +11936,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="82" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="48" t="s">
         <v>213</v>
       </c>
@@ -11985,7 +11988,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="83" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="48" t="s">
         <v>202</v>
       </c>
@@ -12027,7 +12030,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="84" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="48" t="s">
         <v>201</v>
       </c>
@@ -12069,7 +12072,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="85" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="48" t="s">
         <v>199</v>
       </c>
@@ -12115,7 +12118,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="86" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="72"/>
       <c r="B86" s="73"/>
       <c r="C86" s="74"/>
@@ -12145,7 +12148,7 @@
       <c r="AA86" s="96"/>
       <c r="AB86" s="72"/>
     </row>
-    <row r="87" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="48" t="s">
         <v>81</v>
       </c>
@@ -12199,7 +12202,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="48" t="s">
         <v>230</v>
       </c>
@@ -12253,7 +12256,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="89" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="48" t="s">
         <v>231</v>
       </c>
@@ -12307,7 +12310,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="90" spans="1:28" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:28" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="72"/>
       <c r="B90" s="73"/>
       <c r="C90" s="74"/>
@@ -12337,7 +12340,7 @@
       <c r="AA90" s="96"/>
       <c r="AB90" s="72"/>
     </row>
-    <row r="91" spans="1:28" s="59" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:28" s="59" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A91" s="48" t="s">
         <v>426</v>
       </c>
@@ -12385,7 +12388,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="72"/>
       <c r="B92" s="73"/>
       <c r="C92" s="74"/>
@@ -12415,7 +12418,7 @@
       <c r="AA92" s="96"/>
       <c r="AB92" s="72"/>
     </row>
-    <row r="93" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="48" t="s">
         <v>240</v>
       </c>
@@ -12469,7 +12472,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="94" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="72"/>
       <c r="B94" s="73"/>
       <c r="C94" s="74"/>
@@ -12499,7 +12502,7 @@
       <c r="AA94" s="96"/>
       <c r="AB94" s="72"/>
     </row>
-    <row r="95" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="48" t="s">
         <v>244</v>
       </c>
@@ -12553,7 +12556,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="96" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="72"/>
       <c r="B96" s="73"/>
       <c r="C96" s="74"/>
@@ -12583,7 +12586,7 @@
       <c r="AA96" s="96"/>
       <c r="AB96" s="72"/>
     </row>
-    <row r="97" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="48" t="s">
         <v>263</v>
       </c>
@@ -12637,7 +12640,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="98" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="72"/>
       <c r="B98" s="73"/>
       <c r="C98" s="74"/>
@@ -12667,7 +12670,7 @@
       <c r="AA98" s="96"/>
       <c r="AB98" s="72"/>
     </row>
-    <row r="99" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="48" t="s">
         <v>256</v>
       </c>
@@ -12723,7 +12726,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="100" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="48"/>
       <c r="B100" s="49" t="s">
         <v>241</v>
@@ -12775,7 +12778,7 @@
       </c>
       <c r="AB100" s="48"/>
     </row>
-    <row r="101" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="72"/>
       <c r="B101" s="73"/>
       <c r="C101" s="74"/>
@@ -12805,7 +12808,7 @@
       <c r="AA101" s="96"/>
       <c r="AB101" s="72"/>
     </row>
-    <row r="102" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="48" t="s">
         <v>80</v>
       </c>
@@ -12859,7 +12862,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="103" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="72"/>
       <c r="B103" s="73"/>
       <c r="C103" s="74"/>
@@ -12889,7 +12892,7 @@
       <c r="AA103" s="96"/>
       <c r="AB103" s="72"/>
     </row>
-    <row r="104" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>192</v>
       </c>
@@ -12931,7 +12934,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="105" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="72"/>
       <c r="B105" s="73"/>
       <c r="C105" s="74"/>
@@ -12961,7 +12964,7 @@
       <c r="AA105" s="96"/>
       <c r="AB105" s="72"/>
     </row>
-    <row r="106" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="48" t="s">
         <v>224</v>
       </c>
@@ -13003,7 +13006,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="107" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="72"/>
       <c r="B107" s="73"/>
       <c r="C107" s="74"/>
@@ -13033,7 +13036,7 @@
       <c r="AA107" s="96"/>
       <c r="AB107" s="72"/>
     </row>
-    <row r="108" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="48" t="s">
         <v>166</v>
       </c>
@@ -13075,7 +13078,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="109" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="72"/>
       <c r="B109" s="73"/>
       <c r="C109" s="74"/>
@@ -13105,7 +13108,7 @@
       <c r="AA109" s="96"/>
       <c r="AB109" s="72"/>
     </row>
-    <row r="110" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="48" t="s">
         <v>160</v>
       </c>
@@ -13147,7 +13150,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="111" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="72"/>
       <c r="B111" s="73"/>
       <c r="C111" s="74"/>
@@ -13177,7 +13180,7 @@
       <c r="AA111" s="96"/>
       <c r="AB111" s="72"/>
     </row>
-    <row r="112" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="48" t="s">
         <v>102</v>
       </c>
@@ -13219,7 +13222,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="113" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="72"/>
       <c r="B113" s="73"/>
       <c r="C113" s="74"/>
@@ -13249,7 +13252,7 @@
       <c r="AA113" s="96"/>
       <c r="AB113" s="72"/>
     </row>
-    <row r="114" spans="1:28" s="68" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:28" s="68" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="48" t="s">
         <v>390</v>
       </c>
@@ -13291,7 +13294,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="115" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="72"/>
       <c r="B115" s="73"/>
       <c r="C115" s="74"/>
@@ -13321,7 +13324,7 @@
       <c r="AA115" s="96"/>
       <c r="AB115" s="72"/>
     </row>
-    <row r="116" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="48" t="s">
         <v>151</v>
       </c>
@@ -13363,7 +13366,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="117" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="72"/>
       <c r="B117" s="73"/>
       <c r="C117" s="74"/>
@@ -13393,7 +13396,7 @@
       <c r="AA117" s="96"/>
       <c r="AB117" s="72"/>
     </row>
-    <row r="118" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="48" t="s">
         <v>227</v>
       </c>
@@ -13447,7 +13450,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="119" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="72"/>
       <c r="B119" s="73"/>
       <c r="C119" s="74"/>
@@ -13477,7 +13480,7 @@
       <c r="AA119" s="96"/>
       <c r="AB119" s="72"/>
     </row>
-    <row r="120" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="48" t="s">
         <v>185</v>
       </c>
@@ -13531,7 +13534,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="121" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="72"/>
       <c r="B121" s="73"/>
       <c r="C121" s="74"/>
@@ -13561,7 +13564,7 @@
       <c r="AA121" s="96"/>
       <c r="AB121" s="72"/>
     </row>
-    <row r="122" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="48" t="s">
         <v>259</v>
       </c>
@@ -13603,7 +13606,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="123" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="72"/>
       <c r="B123" s="73"/>
       <c r="C123" s="74"/>
@@ -13633,7 +13636,7 @@
       <c r="AA123" s="96"/>
       <c r="AB123" s="72"/>
     </row>
-    <row r="124" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="48" t="s">
         <v>251</v>
       </c>
@@ -13685,7 +13688,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="125" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="72"/>
       <c r="B125" s="73"/>
       <c r="C125" s="74"/>
@@ -13715,7 +13718,7 @@
       <c r="AA125" s="96"/>
       <c r="AB125" s="72"/>
     </row>
-    <row r="126" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="48" t="s">
         <v>125</v>
       </c>
@@ -13769,7 +13772,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:28" s="59" customFormat="1" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="48" t="s">
         <v>125</v>
       </c>
@@ -13823,7 +13826,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="72"/>
       <c r="B128" s="73"/>
       <c r="C128" s="74"/>
@@ -13853,7 +13856,7 @@
       <c r="AA128" s="96"/>
       <c r="AB128" s="72"/>
     </row>
-    <row r="129" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="48" t="s">
         <v>106</v>
       </c>
@@ -13905,7 +13908,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="130" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="72"/>
       <c r="B130" s="73"/>
       <c r="C130" s="74"/>
@@ -13935,7 +13938,7 @@
       <c r="AA130" s="96"/>
       <c r="AB130" s="72"/>
     </row>
-    <row r="131" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="48" t="s">
         <v>107</v>
       </c>
@@ -13987,7 +13990,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="132" spans="1:28" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:28" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="72"/>
       <c r="B132" s="73"/>
       <c r="C132" s="74"/>
@@ -14017,7 +14020,7 @@
       <c r="AA132" s="96"/>
       <c r="AB132" s="72"/>
     </row>
-    <row r="133" spans="1:28" s="59" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:28" s="59" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A133" s="48" t="s">
         <v>425</v>
       </c>
@@ -14091,7 +14094,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="134" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:28" s="59" customFormat="1" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="48" t="s">
         <v>401</v>
       </c>
@@ -14147,7 +14150,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="135" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:28" s="59" customFormat="1" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="48" t="s">
         <v>402</v>
       </c>
@@ -14201,7 +14204,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="136" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="48" t="s">
         <v>156</v>
       </c>
@@ -14255,7 +14258,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="137" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="48" t="s">
         <v>156</v>
       </c>
@@ -14297,7 +14300,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="138" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="48" t="s">
         <v>157</v>
       </c>
@@ -14339,7 +14342,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="139" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="72"/>
       <c r="B139" s="73"/>
       <c r="C139" s="74"/>
@@ -14369,7 +14372,7 @@
       <c r="AA139" s="96"/>
       <c r="AB139" s="72"/>
     </row>
-    <row r="140" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:28" s="59" customFormat="1" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="48" t="s">
         <v>117</v>
       </c>
@@ -14431,7 +14434,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="141" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="48" t="s">
         <v>117</v>
       </c>
@@ -14481,7 +14484,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="142" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="48" t="s">
         <v>118</v>
       </c>
@@ -14535,7 +14538,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="143" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="48" t="s">
         <v>119</v>
       </c>
@@ -14577,7 +14580,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="144" spans="1:28" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:28" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="72"/>
       <c r="B144" s="73"/>
       <c r="C144" s="74"/>
@@ -14607,7 +14610,7 @@
       <c r="AA144" s="96"/>
       <c r="AB144" s="72"/>
     </row>
-    <row r="145" spans="1:28" s="59" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:28" s="59" customFormat="1" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A145" s="48" t="s">
         <v>427</v>
       </c>
@@ -14675,13 +14678,13 @@
         <v>410</v>
       </c>
       <c r="AA145" s="98" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="AB145" s="48" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="146" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:28" s="59" customFormat="1" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="48" t="s">
         <v>403</v>
       </c>
@@ -14737,7 +14740,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="147" spans="1:28" s="67" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:28" s="67" customFormat="1" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="48" t="s">
         <v>404</v>
       </c>
@@ -14787,7 +14790,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="148" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="48" t="s">
         <v>196</v>
       </c>
@@ -14841,7 +14844,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="149" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="48" t="s">
         <v>197</v>
       </c>
@@ -14883,7 +14886,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="150" spans="1:28" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:28" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="72"/>
       <c r="B150" s="73"/>
       <c r="C150" s="74"/>
@@ -14913,7 +14916,7 @@
       <c r="AA150" s="96"/>
       <c r="AB150" s="72"/>
     </row>
-    <row r="151" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="48" t="s">
         <v>200</v>
       </c>
@@ -14975,7 +14978,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="152" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="72"/>
       <c r="B152" s="73"/>
       <c r="C152" s="74"/>
@@ -15005,7 +15008,7 @@
       <c r="AA152" s="96"/>
       <c r="AB152" s="72"/>
     </row>
-    <row r="153" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="48" t="s">
         <v>184</v>
       </c>
@@ -15065,7 +15068,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="154" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="48" t="s">
         <v>184</v>
       </c>
@@ -15115,7 +15118,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="155" spans="1:28" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:28" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="72"/>
       <c r="B155" s="73"/>
       <c r="C155" s="74"/>
@@ -15145,7 +15148,7 @@
       <c r="AA155" s="96"/>
       <c r="AB155" s="72"/>
     </row>
-    <row r="156" spans="1:28" s="59" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:28" s="59" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A156" s="48" t="s">
         <v>429</v>
       </c>
@@ -15209,7 +15212,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="157" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="72"/>
       <c r="B157" s="73"/>
       <c r="C157" s="74"/>
@@ -15239,7 +15242,7 @@
       <c r="AA157" s="96"/>
       <c r="AB157" s="72"/>
     </row>
-    <row r="158" spans="1:28" s="59" customFormat="1" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:28" s="59" customFormat="1" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="48" t="s">
         <v>236</v>
       </c>
@@ -15301,7 +15304,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="159" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="72"/>
       <c r="B159" s="73"/>
       <c r="C159" s="74"/>
@@ -15331,7 +15334,7 @@
       <c r="AA159" s="96"/>
       <c r="AB159" s="72"/>
     </row>
-    <row r="160" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="48" t="s">
         <v>405</v>
       </c>
@@ -15393,7 +15396,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="161" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="48" t="s">
         <v>406</v>
       </c>
@@ -15451,7 +15454,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="162" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="72"/>
       <c r="B162" s="73"/>
       <c r="C162" s="74"/>
@@ -15481,7 +15484,7 @@
       <c r="AA162" s="96"/>
       <c r="AB162" s="72"/>
     </row>
-    <row r="163" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="48" t="s">
         <v>98</v>
       </c>
@@ -15523,7 +15526,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="164" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="72"/>
       <c r="B164" s="73"/>
       <c r="C164" s="74"/>
@@ -15553,7 +15556,7 @@
       <c r="AA164" s="96"/>
       <c r="AB164" s="72"/>
     </row>
-    <row r="165" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="48" t="s">
         <v>132</v>
       </c>
@@ -15603,7 +15606,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="166" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="72"/>
       <c r="B166" s="73"/>
       <c r="C166" s="74"/>
@@ -15633,7 +15636,7 @@
       <c r="AA166" s="96"/>
       <c r="AB166" s="72"/>
     </row>
-    <row r="167" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="48" t="s">
         <v>136</v>
       </c>
@@ -15685,7 +15688,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="168" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="72"/>
       <c r="B168" s="73"/>
       <c r="C168" s="74"/>
@@ -15715,7 +15718,7 @@
       <c r="AA168" s="96"/>
       <c r="AB168" s="72"/>
     </row>
-    <row r="169" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="48" t="s">
         <v>129</v>
       </c>
@@ -15769,7 +15772,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="170" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="72"/>
       <c r="B170" s="73"/>
       <c r="C170" s="74"/>
@@ -15799,7 +15802,7 @@
       <c r="AA170" s="96"/>
       <c r="AB170" s="72"/>
     </row>
-    <row r="171" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="48" t="s">
         <v>94</v>
       </c>
@@ -15851,7 +15854,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="172" spans="1:28" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:28" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="72"/>
       <c r="B172" s="73"/>
       <c r="C172" s="74"/>
@@ -15881,7 +15884,7 @@
       <c r="AA172" s="96"/>
       <c r="AB172" s="72"/>
     </row>
-    <row r="173" spans="1:28" s="59" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:28" s="59" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A173" s="48" t="s">
         <v>430</v>
       </c>
@@ -15947,7 +15950,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="72"/>
       <c r="B174" s="73"/>
       <c r="C174" s="74"/>
@@ -15977,7 +15980,7 @@
       <c r="AA174" s="96"/>
       <c r="AB174" s="72"/>
     </row>
-    <row r="175" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="48" t="s">
         <v>144</v>
       </c>
@@ -16031,7 +16034,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="176" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="72"/>
       <c r="B176" s="73"/>
       <c r="C176" s="74"/>
@@ -16061,7 +16064,7 @@
       <c r="AA176" s="96"/>
       <c r="AB176" s="72"/>
     </row>
-    <row r="177" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:28" s="59" customFormat="1" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="48" t="s">
         <v>171</v>
       </c>
@@ -16109,7 +16112,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="178" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:28" s="59" customFormat="1" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="48" t="s">
         <v>170</v>
       </c>
@@ -16157,7 +16160,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="179" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="72"/>
       <c r="B179" s="73"/>
       <c r="C179" s="74"/>
@@ -16187,7 +16190,7 @@
       <c r="AA179" s="96"/>
       <c r="AB179" s="72"/>
     </row>
-    <row r="180" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="48" t="s">
         <v>288</v>
       </c>
@@ -16241,7 +16244,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="181" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="72"/>
       <c r="B181" s="73"/>
       <c r="C181" s="74"/>
@@ -16271,7 +16274,7 @@
       <c r="AA181" s="96"/>
       <c r="AB181" s="72"/>
     </row>
-    <row r="182" spans="1:28" s="59" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:28" s="59" customFormat="1" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="48" t="s">
         <v>391</v>
       </c>
@@ -16341,7 +16344,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="183" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="72"/>
       <c r="B183" s="73"/>
       <c r="C183" s="74"/>
@@ -16371,7 +16374,7 @@
       <c r="AA183" s="96"/>
       <c r="AB183" s="72"/>
     </row>
-    <row r="184" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:28" s="59" customFormat="1" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="48" t="s">
         <v>392</v>
       </c>
@@ -16423,7 +16426,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="185" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="72"/>
       <c r="B185" s="73"/>
       <c r="C185" s="74"/>
@@ -16453,7 +16456,7 @@
       <c r="AA185" s="96"/>
       <c r="AB185" s="72"/>
     </row>
-    <row r="186" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="48" t="s">
         <v>282</v>
       </c>
@@ -16503,7 +16506,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="187" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="72"/>
       <c r="B187" s="73"/>
       <c r="C187" s="74"/>
@@ -16533,7 +16536,7 @@
       <c r="AA187" s="96"/>
       <c r="AB187" s="72"/>
     </row>
-    <row r="188" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="48" t="s">
         <v>284</v>
       </c>
@@ -16575,7 +16578,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="189" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="72"/>
       <c r="B189" s="73"/>
       <c r="C189" s="74"/>
@@ -16605,7 +16608,7 @@
       <c r="AA189" s="96"/>
       <c r="AB189" s="72"/>
     </row>
-    <row r="190" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="48" t="s">
         <v>278</v>
       </c>
@@ -16655,7 +16658,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="191" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="72"/>
       <c r="B191" s="73"/>
       <c r="C191" s="74"/>
@@ -16685,7 +16688,7 @@
       <c r="AA191" s="96"/>
       <c r="AB191" s="72"/>
     </row>
-    <row r="192" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:28" s="59" customFormat="1" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="48" t="s">
         <v>268</v>
       </c>
@@ -16735,7 +16738,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="193" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="22"/>
       <c r="B193" s="23"/>
       <c r="C193" s="41"/>
@@ -16765,7 +16768,7 @@
       <c r="AA193" s="94"/>
       <c r="AB193" s="22"/>
     </row>
-    <row r="194" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="22"/>
       <c r="B194" s="23"/>
       <c r="C194" s="41"/>
@@ -16798,19 +16801,6 @@
   </sheetData>
   <autoFilter ref="A13:AB194" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="22">
-    <mergeCell ref="AB9:AB11"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="AA9:AA11"/>
@@ -16820,6 +16810,19 @@
     <mergeCell ref="E9:E11"/>
     <mergeCell ref="I9:V9"/>
     <mergeCell ref="W10:X10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="AB9:AB11"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="C9:C11"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/enunciado/Listado equipos.xlsx
+++ b/enunciado/Listado equipos.xlsx
@@ -5,18 +5,19 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime\Documents\JAIME\Sistemas de Vapor\TrabajoFinal\Pvapor\enunciado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Efrén E. VD\Dropbox\UACA\Curso Vapor UACA_I Cuatrimestre 2020\Proyecto Final\Nutrición\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224ADA54-4B20-4BC2-BE87-60CBA09D0CB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A62ABD-F4CF-469B-852F-99212F4B04EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Previstas" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Previstas!$A$13:$AB$194</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Previstas!$A$1:$AB$195</definedName>
     <definedName name="BuiltIn_AutoFilter___1">#REF!</definedName>
     <definedName name="BuiltIn_AutoFilter___1_1">#REF!</definedName>
     <definedName name="BuiltIn_AutoFilter___1_2">#REF!</definedName>
@@ -24,7 +25,6 @@
     <definedName name="BuiltIn_AutoFilter___1_4">Previstas!$A$9:$E$11</definedName>
     <definedName name="BuiltIn_AutoFilter___1_5">Previstas!$A$9:$E$11</definedName>
     <definedName name="BuiltIn_AutoFilter___1_6">Previstas!$A$9:$E$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Previstas!$A$1:$AB$195</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Previstas!$1:$11</definedName>
     <definedName name="unnamed">#REF!</definedName>
     <definedName name="unnamed_1">Previstas!$A$9:$E$9</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="434">
   <si>
     <t>ITEM</t>
   </si>
@@ -577,15 +577,6 @@
   </si>
   <si>
     <t>GROEN</t>
-  </si>
-  <si>
-    <t>BPM-40G</t>
-  </si>
-  <si>
-    <t>SARTEN RECLINABLE</t>
-  </si>
-  <si>
-    <t>AH/1E-40</t>
   </si>
   <si>
     <t>NT44</t>
@@ -1202,9 +1193,6 @@
     <t>30</t>
   </si>
   <si>
-    <t>144000</t>
-  </si>
-  <si>
     <t>136000</t>
   </si>
   <si>
@@ -1274,9 +1262,6 @@
     <t>23</t>
   </si>
   <si>
-    <t>85,000</t>
-  </si>
-  <si>
     <t>600</t>
   </si>
   <si>
@@ -1310,9 +1295,6 @@
     <t>MAQUINA LAVADORA DE VAJILLA, 480/60/3</t>
   </si>
   <si>
-    <t>MARMITA, 40 GALONES, INTERIOR ACERO 316</t>
-  </si>
-  <si>
     <t>SE REQUIERE ESTACION REGULACION DE VAPOR. ADEMAS EL DRENAJE DEBE DE SER CON TUBERIA PARA ALTA TEMPERATURA O (HIERRO NEGRO). SE REQUIERE EN LAS PREVISTAS DE AGUA POTABLE LLAVE DE PASO (HEMBRA).</t>
   </si>
   <si>
@@ -1340,7 +1322,31 @@
     <t>S46</t>
   </si>
   <si>
-    <t>SE REQUIERE ESTACION REGULACION DE VAPOR. ADEMAS EL DRENAJE DEBE DE SER CON TUBERIA PARA ALTA TEMPERATURA O (HIERRO NEGRO). CONEXIÓN REQUIERE DESCONECTADOR CON COLA DE CABLE CON BIEX DE 1,5METROS. TEMP.MAXIMA 100°C.accion directa, vallvula de regulacion de presion. MAximo psi--para las marmitas</t>
+    <t>VULCAN</t>
+  </si>
+  <si>
+    <t>MARMITA, 60 GALONES, INTERIOR ACERO 316</t>
+  </si>
+  <si>
+    <t>KDL</t>
+  </si>
+  <si>
+    <t>KDLT</t>
+  </si>
+  <si>
+    <t>MARMITA, 60 GALONES, INTERIOR ACERO 316, RECLINABLE</t>
+  </si>
+  <si>
+    <t>132 KG/H</t>
+  </si>
+  <si>
+    <t>3/4"</t>
+  </si>
+  <si>
+    <t>143 KG/H</t>
+  </si>
+  <si>
+    <t>1/2" COND</t>
   </si>
 </sst>
 </file>
@@ -6481,7 +6487,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6804,43 +6810,43 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:GN194"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="5" ySplit="11" topLeftCell="F144" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="1" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="70" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane xSplit="5" ySplit="11" topLeftCell="F172" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="AA145" sqref="AA145"/>
+      <selection pane="bottomRight" activeCell="V173" sqref="V173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.109375" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="42" customWidth="1"/>
-    <col min="4" max="4" width="40.33203125" customWidth="1"/>
-    <col min="5" max="5" width="3.109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" customWidth="1"/>
-    <col min="7" max="8" width="5.5546875" customWidth="1"/>
-    <col min="9" max="9" width="5.109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="8" width="5.5703125" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="6" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="5.109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="4" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="3" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="2.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="3" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="3.5546875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5546875" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="4.6640625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.5703125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5703125" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="4.7109375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="5.5546875" hidden="1" customWidth="1"/>
-    <col min="25" max="26" width="6.44140625" customWidth="1"/>
-    <col min="27" max="27" width="41.5546875" style="99" customWidth="1"/>
-    <col min="28" max="28" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.5703125" hidden="1" customWidth="1"/>
+    <col min="25" max="26" width="6.42578125" customWidth="1"/>
+    <col min="27" max="27" width="41.5703125" style="99" customWidth="1"/>
+    <col min="28" max="28" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:196" s="1" customFormat="1" ht="24.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:196" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A1" s="117"/>
       <c r="B1" s="118"/>
       <c r="C1" s="118"/>
@@ -7038,7 +7044,7 @@
       <c r="GM1" s="2"/>
       <c r="GN1" s="2"/>
     </row>
-    <row r="2" spans="1:196" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:196" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="40"/>
@@ -7236,7 +7242,7 @@
       <c r="GM2" s="2"/>
       <c r="GN2" s="2"/>
     </row>
-    <row r="3" spans="1:196" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:196" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A3" s="119" t="s">
         <v>31</v>
       </c>
@@ -7436,7 +7442,7 @@
       <c r="GM3" s="2"/>
       <c r="GN3" s="2"/>
     </row>
-    <row r="4" spans="1:196" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:196" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A4" s="119"/>
       <c r="B4" s="120"/>
       <c r="C4" s="120"/>
@@ -7634,7 +7640,7 @@
       <c r="GM4" s="2"/>
       <c r="GN4" s="2"/>
     </row>
-    <row r="5" spans="1:196" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:196" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A5" s="119" t="s">
         <v>16</v>
       </c>
@@ -7834,7 +7840,7 @@
       <c r="GM5" s="2"/>
       <c r="GN5" s="2"/>
     </row>
-    <row r="6" spans="1:196" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:196" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A6" s="121" t="s">
         <v>34</v>
       </c>
@@ -8034,7 +8040,7 @@
       <c r="GM6" s="2"/>
       <c r="GN6" s="2"/>
     </row>
-    <row r="7" spans="1:196" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:196" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A7" s="119"/>
       <c r="B7" s="120"/>
       <c r="C7" s="120"/>
@@ -8232,7 +8238,7 @@
       <c r="GM7" s="2"/>
       <c r="GN7" s="2"/>
     </row>
-    <row r="8" spans="1:196" s="1" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:196" s="1" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="119"/>
       <c r="B8" s="120"/>
       <c r="C8" s="120"/>
@@ -8430,7 +8436,7 @@
       <c r="GM8" s="2"/>
       <c r="GN8" s="2"/>
     </row>
-    <row r="9" spans="1:196" s="1" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:196" s="1" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="108" t="s">
         <v>0</v>
       </c>
@@ -8642,7 +8648,7 @@
       <c r="GM9" s="2"/>
       <c r="GN9" s="2"/>
     </row>
-    <row r="10" spans="1:196" s="1" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:196" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="109"/>
       <c r="B10" s="112"/>
       <c r="C10" s="115"/>
@@ -8669,7 +8675,7 @@
       <c r="R10" s="106"/>
       <c r="S10" s="106"/>
       <c r="T10" s="105" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="U10" s="106"/>
       <c r="V10" s="106"/>
@@ -8852,7 +8858,7 @@
       <c r="GM10" s="2"/>
       <c r="GN10" s="2"/>
     </row>
-    <row r="11" spans="1:196" s="12" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:196" s="12" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="110"/>
       <c r="B11" s="113"/>
       <c r="C11" s="116"/>
@@ -9092,7 +9098,7 @@
       <c r="GM11" s="11"/>
       <c r="GN11" s="11"/>
     </row>
-    <row r="12" spans="1:196" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:196" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A12" s="123" t="s">
         <v>33</v>
       </c>
@@ -9124,7 +9130,7 @@
       <c r="AA12" s="93"/>
       <c r="AB12" s="47"/>
     </row>
-    <row r="13" spans="1:196" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:196" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22"/>
       <c r="B13" s="23"/>
       <c r="C13" s="41"/>
@@ -9154,7 +9160,7 @@
       <c r="AA13" s="94"/>
       <c r="AB13" s="10"/>
     </row>
-    <row r="14" spans="1:196" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:196" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="48" t="s">
         <v>41</v>
       </c>
@@ -9196,7 +9202,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:196" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:196" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="72"/>
       <c r="B15" s="73"/>
       <c r="C15" s="74"/>
@@ -9226,7 +9232,7 @@
       <c r="AA15" s="96"/>
       <c r="AB15" s="72"/>
     </row>
-    <row r="16" spans="1:196" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:196" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="48" t="s">
         <v>35</v>
       </c>
@@ -9268,7 +9274,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="72"/>
       <c r="B17" s="73"/>
       <c r="C17" s="74"/>
@@ -9298,7 +9304,7 @@
       <c r="AA17" s="96"/>
       <c r="AB17" s="72"/>
     </row>
-    <row r="18" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="48" t="s">
         <v>40</v>
       </c>
@@ -9340,7 +9346,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="72"/>
       <c r="B19" s="73"/>
       <c r="C19" s="74"/>
@@ -9370,7 +9376,7 @@
       <c r="AA19" s="96"/>
       <c r="AB19" s="72"/>
     </row>
-    <row r="20" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="48" t="s">
         <v>47</v>
       </c>
@@ -9384,23 +9390,23 @@
         <v>46</v>
       </c>
       <c r="E20" s="66" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F20" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="G20" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="H20" s="56" t="s">
         <v>289</v>
       </c>
-      <c r="G20" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="H20" s="56" t="s">
-        <v>292</v>
-      </c>
       <c r="I20" s="54" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J20" s="55"/>
       <c r="K20" s="56" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L20" s="54"/>
       <c r="M20" s="55"/>
@@ -9418,13 +9424,13 @@
       <c r="Y20" s="54"/>
       <c r="Z20" s="58"/>
       <c r="AA20" s="95" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="AB20" s="48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="72"/>
       <c r="B21" s="73"/>
       <c r="C21" s="74"/>
@@ -9454,7 +9460,7 @@
       <c r="AA21" s="96"/>
       <c r="AB21" s="72"/>
     </row>
-    <row r="22" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="48" t="s">
         <v>45</v>
       </c>
@@ -9465,7 +9471,7 @@
         <v>36</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E22" s="50" t="s">
         <v>26</v>
@@ -9477,7 +9483,7 @@
       <c r="J22" s="57"/>
       <c r="K22" s="62"/>
       <c r="L22" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M22" s="57" t="s">
         <v>25</v>
@@ -9488,7 +9494,7 @@
       <c r="O22" s="57"/>
       <c r="P22" s="57"/>
       <c r="Q22" s="57" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="R22" s="57"/>
       <c r="S22" s="57"/>
@@ -9500,13 +9506,13 @@
       <c r="Y22" s="61"/>
       <c r="Z22" s="58"/>
       <c r="AA22" s="97" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AB22" s="48" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="48" t="s">
         <v>45</v>
       </c>
@@ -9517,7 +9523,7 @@
         <v>36</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E23" s="66" t="s">
         <v>150</v>
@@ -9548,7 +9554,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="72"/>
       <c r="B24" s="73"/>
       <c r="C24" s="74"/>
@@ -9578,7 +9584,7 @@
       <c r="AA24" s="96"/>
       <c r="AB24" s="72"/>
     </row>
-    <row r="25" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="48" t="s">
         <v>52</v>
       </c>
@@ -9601,7 +9607,7 @@
       <c r="J25" s="55"/>
       <c r="K25" s="56"/>
       <c r="L25" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M25" s="57" t="s">
         <v>25</v>
@@ -9612,7 +9618,7 @@
       <c r="O25" s="57"/>
       <c r="P25" s="57"/>
       <c r="Q25" s="57" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="R25" s="57"/>
       <c r="S25" s="57"/>
@@ -9624,13 +9630,13 @@
       <c r="Y25" s="61"/>
       <c r="Z25" s="58"/>
       <c r="AA25" s="97" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AB25" s="48" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="72"/>
       <c r="B26" s="73"/>
       <c r="C26" s="74"/>
@@ -9660,7 +9666,7 @@
       <c r="AA26" s="96"/>
       <c r="AB26" s="72"/>
     </row>
-    <row r="27" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="48" t="s">
         <v>57</v>
       </c>
@@ -9702,7 +9708,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="72"/>
       <c r="B28" s="73"/>
       <c r="C28" s="74"/>
@@ -9732,7 +9738,7 @@
       <c r="AA28" s="96"/>
       <c r="AB28" s="72"/>
     </row>
-    <row r="29" spans="1:28" s="59" customFormat="1" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="48" t="s">
         <v>63</v>
       </c>
@@ -9749,23 +9755,23 @@
         <v>26</v>
       </c>
       <c r="F29" s="54" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G29" s="55" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H29" s="56" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I29" s="54" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J29" s="55"/>
       <c r="K29" s="56" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L29" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M29" s="57" t="s">
         <v>25</v>
@@ -9776,7 +9782,7 @@
       <c r="O29" s="57"/>
       <c r="P29" s="57"/>
       <c r="Q29" s="57" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="R29" s="57"/>
       <c r="S29" s="57"/>
@@ -9788,13 +9794,13 @@
       <c r="Y29" s="61"/>
       <c r="Z29" s="58"/>
       <c r="AA29" s="95" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AB29" s="48" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="72"/>
       <c r="B30" s="73"/>
       <c r="C30" s="74"/>
@@ -9824,7 +9830,7 @@
       <c r="AA30" s="96"/>
       <c r="AB30" s="72"/>
     </row>
-    <row r="31" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="48" t="s">
         <v>48</v>
       </c>
@@ -9841,20 +9847,20 @@
         <v>25</v>
       </c>
       <c r="F31" s="61" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G31" s="57" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H31" s="62" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I31" s="61" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J31" s="57"/>
       <c r="K31" s="62" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L31" s="61"/>
       <c r="M31" s="57"/>
@@ -9872,13 +9878,13 @@
       <c r="Y31" s="61"/>
       <c r="Z31" s="58"/>
       <c r="AA31" s="95" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="AB31" s="48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="72"/>
       <c r="B32" s="73"/>
       <c r="C32" s="74"/>
@@ -9908,9 +9914,9 @@
       <c r="AA32" s="96"/>
       <c r="AB32" s="72"/>
     </row>
-    <row r="33" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="48" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B33" s="49" t="s">
         <v>36</v>
@@ -9919,26 +9925,26 @@
         <v>36</v>
       </c>
       <c r="D33" s="53" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E33" s="52" t="s">
         <v>25</v>
       </c>
       <c r="F33" s="61" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G33" s="57" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H33" s="62" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I33" s="61" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J33" s="57"/>
       <c r="K33" s="62" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L33" s="54"/>
       <c r="M33" s="55"/>
@@ -9956,15 +9962,15 @@
       <c r="Y33" s="54"/>
       <c r="Z33" s="58"/>
       <c r="AA33" s="95" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="AB33" s="48" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="48" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B34" s="49" t="s">
         <v>36</v>
@@ -10001,10 +10007,10 @@
       <c r="Z34" s="58"/>
       <c r="AA34" s="95"/>
       <c r="AB34" s="48" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="72"/>
       <c r="B35" s="73"/>
       <c r="C35" s="74"/>
@@ -10034,7 +10040,7 @@
       <c r="AA35" s="96"/>
       <c r="AB35" s="72"/>
     </row>
-    <row r="36" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="48" t="s">
         <v>51</v>
       </c>
@@ -10057,7 +10063,7 @@
       <c r="J36" s="55"/>
       <c r="K36" s="56"/>
       <c r="L36" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M36" s="57" t="s">
         <v>25</v>
@@ -10068,7 +10074,7 @@
       <c r="O36" s="57"/>
       <c r="P36" s="57"/>
       <c r="Q36" s="57" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="R36" s="57"/>
       <c r="S36" s="57"/>
@@ -10080,13 +10086,13 @@
       <c r="Y36" s="61"/>
       <c r="Z36" s="58"/>
       <c r="AA36" s="97" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AB36" s="48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="72"/>
       <c r="B37" s="73"/>
       <c r="C37" s="74"/>
@@ -10116,9 +10122,9 @@
       <c r="AA37" s="96"/>
       <c r="AB37" s="72"/>
     </row>
-    <row r="38" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="48" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B38" s="49" t="s">
         <v>36</v>
@@ -10155,10 +10161,10 @@
       <c r="Z38" s="58"/>
       <c r="AA38" s="95"/>
       <c r="AB38" s="48" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="48" t="s">
         <v>60</v>
       </c>
@@ -10175,20 +10181,20 @@
         <v>28</v>
       </c>
       <c r="F39" s="61" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G39" s="57" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H39" s="62" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I39" s="61" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J39" s="57"/>
       <c r="K39" s="62" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L39" s="54"/>
       <c r="M39" s="55"/>
@@ -10206,15 +10212,15 @@
       <c r="Y39" s="54"/>
       <c r="Z39" s="58"/>
       <c r="AA39" s="95" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="AB39" s="48" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="48" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B40" s="49" t="s">
         <v>36</v>
@@ -10223,7 +10229,7 @@
         <v>36</v>
       </c>
       <c r="D40" s="53" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E40" s="52" t="s">
         <v>25</v>
@@ -10251,10 +10257,10 @@
       <c r="Z40" s="58"/>
       <c r="AA40" s="95"/>
       <c r="AB40" s="48" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="72"/>
       <c r="B41" s="73"/>
       <c r="C41" s="74"/>
@@ -10284,7 +10290,7 @@
       <c r="AA41" s="96"/>
       <c r="AB41" s="72"/>
     </row>
-    <row r="42" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="48" t="s">
         <v>69</v>
       </c>
@@ -10301,20 +10307,20 @@
         <v>25</v>
       </c>
       <c r="F42" s="61" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G42" s="57" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H42" s="62" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I42" s="61" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J42" s="57"/>
       <c r="K42" s="62" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L42" s="54"/>
       <c r="M42" s="55"/>
@@ -10332,13 +10338,13 @@
       <c r="Y42" s="54"/>
       <c r="Z42" s="58"/>
       <c r="AA42" s="95" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="AB42" s="48" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="72"/>
       <c r="B43" s="73"/>
       <c r="C43" s="74"/>
@@ -10368,7 +10374,7 @@
       <c r="AA43" s="96"/>
       <c r="AB43" s="72"/>
     </row>
-    <row r="44" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="48" t="s">
         <v>65</v>
       </c>
@@ -10391,7 +10397,7 @@
       <c r="J44" s="55"/>
       <c r="K44" s="56"/>
       <c r="L44" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M44" s="57" t="s">
         <v>25</v>
@@ -10402,7 +10408,7 @@
       <c r="O44" s="57"/>
       <c r="P44" s="57"/>
       <c r="Q44" s="57" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="R44" s="57"/>
       <c r="S44" s="57"/>
@@ -10414,13 +10420,13 @@
       <c r="Y44" s="61"/>
       <c r="Z44" s="58"/>
       <c r="AA44" s="97" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AB44" s="48" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="72"/>
       <c r="B45" s="73"/>
       <c r="C45" s="74"/>
@@ -10450,7 +10456,7 @@
       <c r="AA45" s="96"/>
       <c r="AB45" s="72"/>
     </row>
-    <row r="46" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="48" t="s">
         <v>39</v>
       </c>
@@ -10467,20 +10473,20 @@
         <v>25</v>
       </c>
       <c r="F46" s="61" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G46" s="57" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H46" s="62" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I46" s="61" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J46" s="57"/>
       <c r="K46" s="62" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L46" s="54"/>
       <c r="M46" s="55"/>
@@ -10498,13 +10504,13 @@
       <c r="Y46" s="54"/>
       <c r="Z46" s="58"/>
       <c r="AA46" s="95" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="AB46" s="48" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="72"/>
       <c r="B47" s="73"/>
       <c r="C47" s="74"/>
@@ -10534,7 +10540,7 @@
       <c r="AA47" s="96"/>
       <c r="AB47" s="72"/>
     </row>
-    <row r="48" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="48" t="s">
         <v>56</v>
       </c>
@@ -10557,7 +10563,7 @@
       <c r="J48" s="55"/>
       <c r="K48" s="56"/>
       <c r="L48" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M48" s="57" t="s">
         <v>25</v>
@@ -10568,7 +10574,7 @@
       <c r="O48" s="57"/>
       <c r="P48" s="57"/>
       <c r="Q48" s="57" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="R48" s="57"/>
       <c r="S48" s="57"/>
@@ -10580,13 +10586,13 @@
       <c r="Y48" s="61"/>
       <c r="Z48" s="58"/>
       <c r="AA48" s="97" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AB48" s="48" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="72"/>
       <c r="B49" s="73"/>
       <c r="C49" s="74"/>
@@ -10616,7 +10622,7 @@
       <c r="AA49" s="96"/>
       <c r="AB49" s="72"/>
     </row>
-    <row r="50" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="48" t="s">
         <v>44</v>
       </c>
@@ -10630,7 +10636,7 @@
         <v>43</v>
       </c>
       <c r="E50" s="50" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F50" s="54"/>
       <c r="G50" s="55"/>
@@ -10639,7 +10645,7 @@
       <c r="J50" s="55"/>
       <c r="K50" s="56"/>
       <c r="L50" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M50" s="57" t="s">
         <v>25</v>
@@ -10650,7 +10656,7 @@
       <c r="O50" s="57"/>
       <c r="P50" s="57"/>
       <c r="Q50" s="57" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="R50" s="57"/>
       <c r="S50" s="57"/>
@@ -10662,13 +10668,13 @@
       <c r="Y50" s="61"/>
       <c r="Z50" s="58"/>
       <c r="AA50" s="97" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AB50" s="48" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="72"/>
       <c r="B51" s="73"/>
       <c r="C51" s="74"/>
@@ -10698,7 +10704,7 @@
       <c r="AA51" s="96"/>
       <c r="AB51" s="72"/>
     </row>
-    <row r="52" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="48" t="s">
         <v>67</v>
       </c>
@@ -10715,20 +10721,20 @@
         <v>25</v>
       </c>
       <c r="F52" s="61" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G52" s="57" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H52" s="62" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I52" s="61" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J52" s="57"/>
       <c r="K52" s="62" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L52" s="54"/>
       <c r="M52" s="55"/>
@@ -10746,13 +10752,13 @@
       <c r="Y52" s="54"/>
       <c r="Z52" s="58"/>
       <c r="AA52" s="95" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="AB52" s="48" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="72"/>
       <c r="B53" s="73"/>
       <c r="C53" s="74"/>
@@ -10782,7 +10788,7 @@
       <c r="AA53" s="96"/>
       <c r="AB53" s="72"/>
     </row>
-    <row r="54" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="48" t="s">
         <v>73</v>
       </c>
@@ -10802,11 +10808,11 @@
       <c r="G54" s="55"/>
       <c r="H54" s="56"/>
       <c r="I54" s="54" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J54" s="55"/>
       <c r="K54" s="56" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L54" s="54"/>
       <c r="M54" s="55"/>
@@ -10828,7 +10834,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="48" t="s">
         <v>74</v>
       </c>
@@ -10848,11 +10854,11 @@
       <c r="G55" s="55"/>
       <c r="H55" s="56"/>
       <c r="I55" s="54" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J55" s="55"/>
       <c r="K55" s="56" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L55" s="54"/>
       <c r="M55" s="55"/>
@@ -10874,7 +10880,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="72"/>
       <c r="B56" s="73"/>
       <c r="C56" s="74"/>
@@ -10904,9 +10910,9 @@
       <c r="AA56" s="96"/>
       <c r="AB56" s="72"/>
     </row>
-    <row r="57" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="48" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B57" s="49" t="s">
         <v>36</v>
@@ -10927,7 +10933,7 @@
       <c r="J57" s="55"/>
       <c r="K57" s="56"/>
       <c r="L57" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M57" s="57" t="s">
         <v>25</v>
@@ -10938,7 +10944,7 @@
       <c r="O57" s="57"/>
       <c r="P57" s="57"/>
       <c r="Q57" s="57" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="R57" s="57"/>
       <c r="S57" s="57"/>
@@ -10950,15 +10956,15 @@
       <c r="Y57" s="61"/>
       <c r="Z57" s="58"/>
       <c r="AA57" s="97" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AB57" s="48" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="48" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B58" s="49" t="s">
         <v>36</v>
@@ -10995,10 +11001,10 @@
       <c r="Z58" s="58"/>
       <c r="AA58" s="95"/>
       <c r="AB58" s="48" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="72"/>
       <c r="B59" s="73"/>
       <c r="C59" s="74"/>
@@ -11028,7 +11034,7 @@
       <c r="AA59" s="96"/>
       <c r="AB59" s="72"/>
     </row>
-    <row r="60" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="48" t="s">
         <v>58</v>
       </c>
@@ -11070,7 +11076,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="72"/>
       <c r="B61" s="73"/>
       <c r="C61" s="74"/>
@@ -11100,7 +11106,7 @@
       <c r="AA61" s="96"/>
       <c r="AB61" s="72"/>
     </row>
-    <row r="62" spans="1:28" s="87" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" s="87" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="48" t="s">
         <v>76</v>
       </c>
@@ -11123,7 +11129,7 @@
       <c r="J62" s="55"/>
       <c r="K62" s="56"/>
       <c r="L62" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M62" s="57" t="s">
         <v>25</v>
@@ -11134,7 +11140,7 @@
       <c r="O62" s="57"/>
       <c r="P62" s="57"/>
       <c r="Q62" s="57" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="R62" s="57"/>
       <c r="S62" s="57"/>
@@ -11150,7 +11156,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="72"/>
       <c r="B63" s="73"/>
       <c r="C63" s="74"/>
@@ -11180,18 +11186,18 @@
       <c r="AA63" s="96"/>
       <c r="AB63" s="72"/>
     </row>
-    <row r="64" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="69" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B64" s="70" t="s">
         <v>89</v>
       </c>
       <c r="C64" s="70" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D64" s="88" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E64" s="71" t="s">
         <v>27</v>
@@ -11203,7 +11209,7 @@
       <c r="J64" s="57"/>
       <c r="K64" s="62"/>
       <c r="L64" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M64" s="57" t="s">
         <v>25</v>
@@ -11214,7 +11220,7 @@
       <c r="O64" s="57"/>
       <c r="P64" s="57"/>
       <c r="Q64" s="57" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="R64" s="57"/>
       <c r="S64" s="57"/>
@@ -11227,10 +11233,10 @@
       <c r="Z64" s="58"/>
       <c r="AA64" s="97"/>
       <c r="AB64" s="48" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="72"/>
       <c r="B65" s="73"/>
       <c r="C65" s="74"/>
@@ -11260,7 +11266,7 @@
       <c r="AA65" s="96"/>
       <c r="AB65" s="72"/>
     </row>
-    <row r="66" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="48" t="s">
         <v>87</v>
       </c>
@@ -11283,7 +11289,7 @@
       <c r="J66" s="55"/>
       <c r="K66" s="56"/>
       <c r="L66" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M66" s="57" t="s">
         <v>25</v>
@@ -11294,7 +11300,7 @@
       <c r="O66" s="57"/>
       <c r="P66" s="57"/>
       <c r="Q66" s="57" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="R66" s="55"/>
       <c r="S66" s="55"/>
@@ -11310,7 +11316,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="72"/>
       <c r="B67" s="73"/>
       <c r="C67" s="74"/>
@@ -11340,7 +11346,7 @@
       <c r="AA67" s="96"/>
       <c r="AB67" s="72"/>
     </row>
-    <row r="68" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="48" t="s">
         <v>91</v>
       </c>
@@ -11363,7 +11369,7 @@
       <c r="J68" s="55"/>
       <c r="K68" s="56"/>
       <c r="L68" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M68" s="57" t="s">
         <v>25</v>
@@ -11374,7 +11380,7 @@
       <c r="O68" s="57"/>
       <c r="P68" s="57"/>
       <c r="Q68" s="57" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="R68" s="55"/>
       <c r="S68" s="55"/>
@@ -11390,7 +11396,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="72"/>
       <c r="B69" s="73"/>
       <c r="C69" s="74"/>
@@ -11420,7 +11426,7 @@
       <c r="AA69" s="96"/>
       <c r="AB69" s="72"/>
     </row>
-    <row r="70" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="48" t="s">
         <v>108</v>
       </c>
@@ -11443,7 +11449,7 @@
       <c r="J70" s="55"/>
       <c r="K70" s="56"/>
       <c r="L70" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M70" s="57" t="s">
         <v>25</v>
@@ -11454,7 +11460,7 @@
       <c r="O70" s="57"/>
       <c r="P70" s="57"/>
       <c r="Q70" s="57" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="R70" s="55"/>
       <c r="S70" s="55"/>
@@ -11470,7 +11476,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="72"/>
       <c r="B71" s="73"/>
       <c r="C71" s="74"/>
@@ -11500,7 +11506,7 @@
       <c r="AA71" s="96"/>
       <c r="AB71" s="72"/>
     </row>
-    <row r="72" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="48" t="s">
         <v>163</v>
       </c>
@@ -11523,7 +11529,7 @@
       <c r="J72" s="55"/>
       <c r="K72" s="56"/>
       <c r="L72" s="61" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M72" s="57" t="s">
         <v>25</v>
@@ -11534,7 +11540,7 @@
       <c r="O72" s="57"/>
       <c r="P72" s="57"/>
       <c r="Q72" s="57" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="R72" s="55"/>
       <c r="S72" s="55"/>
@@ -11550,7 +11556,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="73" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="72"/>
       <c r="B73" s="73"/>
       <c r="C73" s="74"/>
@@ -11580,18 +11586,18 @@
       <c r="AA73" s="96"/>
       <c r="AB73" s="72"/>
     </row>
-    <row r="74" spans="1:28" s="59" customFormat="1" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="69" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B74" s="70" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C74" s="90" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D74" s="88" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E74" s="71" t="s">
         <v>25</v>
@@ -11603,21 +11609,21 @@
       <c r="J74" s="55"/>
       <c r="K74" s="56"/>
       <c r="L74" s="54" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M74" s="55" t="s">
         <v>26</v>
       </c>
       <c r="N74" s="55" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="O74" s="55"/>
       <c r="P74" s="55"/>
       <c r="Q74" s="55" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="R74" s="55" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="S74" s="55"/>
       <c r="T74" s="54"/>
@@ -11628,24 +11634,24 @@
       <c r="Y74" s="54"/>
       <c r="Z74" s="58"/>
       <c r="AA74" s="95" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="AB74" s="48" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="75" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="B75" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="C75" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="D75" s="53" t="s">
         <v>247</v>
-      </c>
-      <c r="B75" s="49" t="s">
-        <v>248</v>
-      </c>
-      <c r="C75" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="D75" s="53" t="s">
-        <v>250</v>
       </c>
       <c r="E75" s="52" t="s">
         <v>27</v>
@@ -11657,17 +11663,17 @@
       <c r="J75" s="55"/>
       <c r="K75" s="56"/>
       <c r="L75" s="54" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M75" s="55" t="s">
         <v>25</v>
       </c>
       <c r="N75" s="55" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="O75" s="55"/>
       <c r="P75" s="55" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="Q75" s="55"/>
       <c r="R75" s="55"/>
@@ -11680,24 +11686,24 @@
       <c r="Y75" s="54"/>
       <c r="Z75" s="58"/>
       <c r="AA75" s="95" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AB75" s="48" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="76" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="48" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B76" s="49" t="s">
         <v>104</v>
       </c>
       <c r="C76" s="50" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D76" s="53" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E76" s="50" t="s">
         <v>27</v>
@@ -11725,21 +11731,21 @@
       <c r="Z76" s="58"/>
       <c r="AA76" s="95"/>
       <c r="AB76" s="48" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="77" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="48" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B77" s="49" t="s">
         <v>104</v>
       </c>
       <c r="C77" s="50" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D77" s="53" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E77" s="52" t="s">
         <v>27</v>
@@ -11767,10 +11773,10 @@
       <c r="Z77" s="58"/>
       <c r="AA77" s="95"/>
       <c r="AB77" s="48" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="78" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="72"/>
       <c r="B78" s="73"/>
       <c r="C78" s="74"/>
@@ -11800,18 +11806,18 @@
       <c r="AA78" s="96"/>
       <c r="AB78" s="72"/>
     </row>
-    <row r="79" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="48" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B79" s="49" t="s">
         <v>99</v>
       </c>
       <c r="C79" s="50" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D79" s="53" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E79" s="52" t="s">
         <v>25</v>
@@ -11839,21 +11845,21 @@
       <c r="Z79" s="58"/>
       <c r="AA79" s="95"/>
       <c r="AB79" s="48" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="B80" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="B80" s="49" t="s">
-        <v>218</v>
-      </c>
       <c r="C80" s="50" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D80" s="53" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E80" s="52" t="s">
         <v>25</v>
@@ -11865,22 +11871,22 @@
       <c r="J80" s="55"/>
       <c r="K80" s="56"/>
       <c r="L80" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M80" s="55" t="s">
         <v>25</v>
       </c>
       <c r="N80" s="55" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O80" s="55"/>
       <c r="P80" s="55"/>
       <c r="Q80" s="55" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="R80" s="55"/>
       <c r="S80" s="57" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="T80" s="54"/>
       <c r="U80" s="57"/>
@@ -11891,21 +11897,21 @@
       <c r="Z80" s="58"/>
       <c r="AA80" s="95"/>
       <c r="AB80" s="48" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="81" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="48" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B81" s="49" t="s">
         <v>99</v>
       </c>
       <c r="C81" s="50" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D81" s="53" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E81" s="52" t="s">
         <v>25</v>
@@ -11933,21 +11939,21 @@
       <c r="Z81" s="58"/>
       <c r="AA81" s="95"/>
       <c r="AB81" s="48" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="82" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="48" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B82" s="49" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C82" s="50" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D82" s="53" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E82" s="52" t="s">
         <v>25</v>
@@ -11959,21 +11965,21 @@
       <c r="J82" s="55"/>
       <c r="K82" s="56"/>
       <c r="L82" s="54" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M82" s="55" t="s">
         <v>25</v>
       </c>
       <c r="N82" s="55" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="O82" s="55"/>
       <c r="P82" s="55"/>
       <c r="Q82" s="55" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="R82" s="55" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="S82" s="55"/>
       <c r="T82" s="54"/>
@@ -11985,21 +11991,21 @@
       <c r="Z82" s="58"/>
       <c r="AA82" s="95"/>
       <c r="AB82" s="48" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="83" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="48" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B83" s="49" t="s">
         <v>104</v>
       </c>
       <c r="C83" s="50" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D83" s="53" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E83" s="52" t="s">
         <v>27</v>
@@ -12027,21 +12033,21 @@
       <c r="Z83" s="58"/>
       <c r="AA83" s="95"/>
       <c r="AB83" s="48" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="84" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="48" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B84" s="49" t="s">
         <v>99</v>
       </c>
       <c r="C84" s="50" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D84" s="53" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E84" s="52" t="s">
         <v>25</v>
@@ -12069,21 +12075,21 @@
       <c r="Z84" s="58"/>
       <c r="AA84" s="95"/>
       <c r="AB84" s="48" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="85" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="48" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B85" s="49" t="s">
         <v>99</v>
       </c>
       <c r="C85" s="50" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D85" s="53" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E85" s="50" t="s">
         <v>25</v>
@@ -12092,11 +12098,11 @@
       <c r="G85" s="55"/>
       <c r="H85" s="56"/>
       <c r="I85" s="54" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="J85" s="55"/>
       <c r="K85" s="56" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L85" s="54"/>
       <c r="M85" s="55"/>
@@ -12115,10 +12121,10 @@
       <c r="Z85" s="58"/>
       <c r="AA85" s="95"/>
       <c r="AB85" s="48" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="86" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="72"/>
       <c r="B86" s="73"/>
       <c r="C86" s="74"/>
@@ -12148,7 +12154,7 @@
       <c r="AA86" s="96"/>
       <c r="AB86" s="72"/>
     </row>
-    <row r="87" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="48" t="s">
         <v>81</v>
       </c>
@@ -12162,7 +12168,7 @@
         <v>84</v>
       </c>
       <c r="E87" s="52" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F87" s="61"/>
       <c r="G87" s="57"/>
@@ -12171,24 +12177,24 @@
       <c r="J87" s="57"/>
       <c r="K87" s="62"/>
       <c r="L87" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M87" s="57" t="s">
         <v>25</v>
       </c>
       <c r="N87" s="57" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="O87" s="57" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P87" s="57"/>
       <c r="Q87" s="57" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="R87" s="57"/>
       <c r="S87" s="57" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="T87" s="61"/>
       <c r="U87" s="57"/>
@@ -12202,18 +12208,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B88" s="49" t="s">
         <v>82</v>
       </c>
       <c r="C88" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="D88" s="53" t="s">
         <v>232</v>
-      </c>
-      <c r="D88" s="53" t="s">
-        <v>235</v>
       </c>
       <c r="E88" s="52" t="s">
         <v>25</v>
@@ -12225,24 +12231,24 @@
       <c r="J88" s="57"/>
       <c r="K88" s="62"/>
       <c r="L88" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M88" s="57" t="s">
         <v>25</v>
       </c>
       <c r="N88" s="57" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="O88" s="57" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P88" s="57"/>
       <c r="Q88" s="57" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="R88" s="57"/>
       <c r="S88" s="57" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="T88" s="61"/>
       <c r="U88" s="57"/>
@@ -12253,21 +12259,21 @@
       <c r="Z88" s="58"/>
       <c r="AA88" s="97"/>
       <c r="AB88" s="48" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="89" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="48" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B89" s="49" t="s">
         <v>82</v>
       </c>
       <c r="C89" s="50" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D89" s="53" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E89" s="52" t="s">
         <v>25</v>
@@ -12279,24 +12285,24 @@
       <c r="J89" s="57"/>
       <c r="K89" s="62"/>
       <c r="L89" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M89" s="57" t="s">
         <v>25</v>
       </c>
       <c r="N89" s="57" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="O89" s="57" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="P89" s="57"/>
       <c r="Q89" s="57" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="R89" s="57"/>
       <c r="S89" s="57" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="T89" s="61"/>
       <c r="U89" s="57"/>
@@ -12307,10 +12313,10 @@
       <c r="Z89" s="58"/>
       <c r="AA89" s="97"/>
       <c r="AB89" s="48" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="90" spans="1:28" s="59" customFormat="1" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="72"/>
       <c r="B90" s="73"/>
       <c r="C90" s="74"/>
@@ -12340,9 +12346,9 @@
       <c r="AA90" s="96"/>
       <c r="AB90" s="72"/>
     </row>
-    <row r="91" spans="1:28" s="59" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" s="59" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B91" s="49" t="s">
         <v>142</v>
@@ -12374,21 +12380,21 @@
       <c r="U91" s="57"/>
       <c r="V91" s="58"/>
       <c r="W91" s="57" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="X91" s="58" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="Y91" s="54"/>
       <c r="Z91" s="58"/>
       <c r="AA91" s="95" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AB91" s="48" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="72"/>
       <c r="B92" s="73"/>
       <c r="C92" s="74"/>
@@ -12418,18 +12424,18 @@
       <c r="AA92" s="96"/>
       <c r="AB92" s="72"/>
     </row>
-    <row r="93" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="B93" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="C93" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="D93" s="53" t="s">
         <v>240</v>
-      </c>
-      <c r="B93" s="49" t="s">
-        <v>241</v>
-      </c>
-      <c r="C93" s="50" t="s">
-        <v>242</v>
-      </c>
-      <c r="D93" s="53" t="s">
-        <v>243</v>
       </c>
       <c r="E93" s="52" t="s">
         <v>28</v>
@@ -12441,7 +12447,7 @@
       <c r="J93" s="57"/>
       <c r="K93" s="62"/>
       <c r="L93" s="61" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M93" s="57" t="s">
         <v>25</v>
@@ -12451,14 +12457,14 @@
       </c>
       <c r="O93" s="57"/>
       <c r="P93" s="57" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Q93" s="57" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="R93" s="57"/>
       <c r="S93" s="57" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="T93" s="61"/>
       <c r="U93" s="57"/>
@@ -12469,10 +12475,10 @@
       <c r="Z93" s="58"/>
       <c r="AA93" s="97"/>
       <c r="AB93" s="48" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="94" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="72"/>
       <c r="B94" s="73"/>
       <c r="C94" s="74"/>
@@ -12502,18 +12508,18 @@
       <c r="AA94" s="96"/>
       <c r="AB94" s="72"/>
     </row>
-    <row r="95" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="48" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B95" s="49" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C95" s="50" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D95" s="53" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E95" s="52" t="s">
         <v>28</v>
@@ -12525,24 +12531,24 @@
       <c r="J95" s="55"/>
       <c r="K95" s="56"/>
       <c r="L95" s="61" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M95" s="57" t="s">
         <v>25</v>
       </c>
       <c r="N95" s="57" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="O95" s="57"/>
       <c r="P95" s="57" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="Q95" s="57" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="R95" s="57"/>
       <c r="S95" s="57" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="T95" s="54"/>
       <c r="U95" s="57"/>
@@ -12553,10 +12559,10 @@
       <c r="Z95" s="58"/>
       <c r="AA95" s="95"/>
       <c r="AB95" s="48" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="96" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="72"/>
       <c r="B96" s="73"/>
       <c r="C96" s="74"/>
@@ -12586,18 +12592,18 @@
       <c r="AA96" s="96"/>
       <c r="AB96" s="72"/>
     </row>
-    <row r="97" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="48" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B97" s="49" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C97" s="50" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D97" s="53" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E97" s="52" t="s">
         <v>25</v>
@@ -12609,24 +12615,24 @@
       <c r="J97" s="55"/>
       <c r="K97" s="56"/>
       <c r="L97" s="61" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M97" s="57" t="s">
         <v>25</v>
       </c>
       <c r="N97" s="57" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="O97" s="57"/>
       <c r="P97" s="57" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Q97" s="57" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="R97" s="57"/>
       <c r="S97" s="57" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="T97" s="54"/>
       <c r="U97" s="57"/>
@@ -12637,10 +12643,10 @@
       <c r="Z97" s="58"/>
       <c r="AA97" s="95"/>
       <c r="AB97" s="48" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="98" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="72"/>
       <c r="B98" s="73"/>
       <c r="C98" s="74"/>
@@ -12670,18 +12676,18 @@
       <c r="AA98" s="96"/>
       <c r="AB98" s="72"/>
     </row>
-    <row r="99" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="48" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B99" s="49" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C99" s="50" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D99" s="53" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E99" s="50" t="s">
         <v>27</v>
@@ -12693,24 +12699,24 @@
       <c r="J99" s="57"/>
       <c r="K99" s="62"/>
       <c r="L99" s="61" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M99" s="57" t="s">
         <v>25</v>
       </c>
       <c r="N99" s="57" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O99" s="57"/>
       <c r="P99" s="57" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="Q99" s="57" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="R99" s="57"/>
       <c r="S99" s="57" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="T99" s="61"/>
       <c r="U99" s="57"/>
@@ -12720,22 +12726,22 @@
       <c r="Y99" s="61"/>
       <c r="Z99" s="58"/>
       <c r="AA99" s="97" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AB99" s="48" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="100" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="48"/>
       <c r="B100" s="49" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C100" s="50" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D100" s="53" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E100" s="66" t="s">
         <v>27</v>
@@ -12747,24 +12753,24 @@
       <c r="J100" s="57"/>
       <c r="K100" s="62"/>
       <c r="L100" s="61" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M100" s="57" t="s">
         <v>25</v>
       </c>
       <c r="N100" s="57" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O100" s="57"/>
       <c r="P100" s="57" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="Q100" s="57" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="R100" s="57"/>
       <c r="S100" s="57" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="T100" s="61"/>
       <c r="U100" s="57"/>
@@ -12774,11 +12780,11 @@
       <c r="Y100" s="61"/>
       <c r="Z100" s="58"/>
       <c r="AA100" s="97" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AB100" s="48"/>
     </row>
-    <row r="101" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="72"/>
       <c r="B101" s="73"/>
       <c r="C101" s="74"/>
@@ -12808,7 +12814,7 @@
       <c r="AA101" s="96"/>
       <c r="AB101" s="72"/>
     </row>
-    <row r="102" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="48" t="s">
         <v>80</v>
       </c>
@@ -12831,24 +12837,24 @@
       <c r="J102" s="57"/>
       <c r="K102" s="62"/>
       <c r="L102" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M102" s="57" t="s">
         <v>25</v>
       </c>
       <c r="N102" s="57" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="O102" s="57" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P102" s="57"/>
       <c r="Q102" s="57" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="R102" s="57"/>
       <c r="S102" s="57" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="T102" s="61"/>
       <c r="U102" s="57"/>
@@ -12862,7 +12868,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="103" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="72"/>
       <c r="B103" s="73"/>
       <c r="C103" s="74"/>
@@ -12892,18 +12898,18 @@
       <c r="AA103" s="96"/>
       <c r="AB103" s="72"/>
     </row>
-    <row r="104" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B104" s="49" t="s">
         <v>153</v>
       </c>
       <c r="C104" s="50" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D104" s="53" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E104" s="52" t="s">
         <v>25</v>
@@ -12931,10 +12937,10 @@
       <c r="Z104" s="58"/>
       <c r="AA104" s="95"/>
       <c r="AB104" s="48" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="105" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="72"/>
       <c r="B105" s="73"/>
       <c r="C105" s="74"/>
@@ -12964,18 +12970,18 @@
       <c r="AA105" s="96"/>
       <c r="AB105" s="72"/>
     </row>
-    <row r="106" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="48" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B106" s="49" t="s">
         <v>153</v>
       </c>
       <c r="C106" s="50" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D106" s="53" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E106" s="52" t="s">
         <v>27</v>
@@ -13003,10 +13009,10 @@
       <c r="Z106" s="58"/>
       <c r="AA106" s="95"/>
       <c r="AB106" s="48" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="107" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="72"/>
       <c r="B107" s="73"/>
       <c r="C107" s="74"/>
@@ -13036,7 +13042,7 @@
       <c r="AA107" s="96"/>
       <c r="AB107" s="72"/>
     </row>
-    <row r="108" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="48" t="s">
         <v>166</v>
       </c>
@@ -13078,7 +13084,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="109" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="72"/>
       <c r="B109" s="73"/>
       <c r="C109" s="74"/>
@@ -13108,7 +13114,7 @@
       <c r="AA109" s="96"/>
       <c r="AB109" s="72"/>
     </row>
-    <row r="110" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="48" t="s">
         <v>160</v>
       </c>
@@ -13150,7 +13156,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="111" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="72"/>
       <c r="B111" s="73"/>
       <c r="C111" s="74"/>
@@ -13180,7 +13186,7 @@
       <c r="AA111" s="96"/>
       <c r="AB111" s="72"/>
     </row>
-    <row r="112" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="48" t="s">
         <v>102</v>
       </c>
@@ -13222,7 +13228,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="113" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="72"/>
       <c r="B113" s="73"/>
       <c r="C113" s="74"/>
@@ -13252,18 +13258,18 @@
       <c r="AA113" s="96"/>
       <c r="AB113" s="72"/>
     </row>
-    <row r="114" spans="1:28" s="68" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:28" s="68" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="48" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B114" s="49" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C114" s="50" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D114" s="53" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E114" s="50" t="s">
         <v>26</v>
@@ -13291,10 +13297,10 @@
       <c r="Z114" s="60"/>
       <c r="AA114" s="95"/>
       <c r="AB114" s="48" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="115" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="72"/>
       <c r="B115" s="73"/>
       <c r="C115" s="74"/>
@@ -13324,7 +13330,7 @@
       <c r="AA115" s="96"/>
       <c r="AB115" s="72"/>
     </row>
-    <row r="116" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="48" t="s">
         <v>151</v>
       </c>
@@ -13366,7 +13372,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="117" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="72"/>
       <c r="B117" s="73"/>
       <c r="C117" s="74"/>
@@ -13396,18 +13402,18 @@
       <c r="AA117" s="96"/>
       <c r="AB117" s="72"/>
     </row>
-    <row r="118" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="48" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B118" s="49" t="s">
         <v>82</v>
       </c>
       <c r="C118" s="50" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D118" s="53" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E118" s="52" t="s">
         <v>27</v>
@@ -13419,24 +13425,24 @@
       <c r="J118" s="57"/>
       <c r="K118" s="62"/>
       <c r="L118" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M118" s="57" t="s">
         <v>25</v>
       </c>
       <c r="N118" s="57" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="O118" s="57" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P118" s="57"/>
       <c r="Q118" s="57" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="R118" s="57"/>
       <c r="S118" s="57" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="T118" s="61"/>
       <c r="U118" s="57"/>
@@ -13447,10 +13453,10 @@
       <c r="Z118" s="58"/>
       <c r="AA118" s="97"/>
       <c r="AB118" s="48" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="119" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="72"/>
       <c r="B119" s="73"/>
       <c r="C119" s="74"/>
@@ -13480,18 +13486,18 @@
       <c r="AA119" s="96"/>
       <c r="AB119" s="72"/>
     </row>
-    <row r="120" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="48" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B120" s="49" t="s">
         <v>82</v>
       </c>
       <c r="C120" s="50" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D120" s="53" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E120" s="52" t="s">
         <v>25</v>
@@ -13503,7 +13509,7 @@
       <c r="J120" s="57"/>
       <c r="K120" s="62"/>
       <c r="L120" s="61" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M120" s="57" t="s">
         <v>25</v>
@@ -13516,10 +13522,10 @@
         <v>26</v>
       </c>
       <c r="Q120" s="57" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="R120" s="57" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="S120" s="57"/>
       <c r="T120" s="61"/>
@@ -13531,10 +13537,10 @@
       <c r="Z120" s="58"/>
       <c r="AA120" s="97"/>
       <c r="AB120" s="48" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="121" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="72"/>
       <c r="B121" s="73"/>
       <c r="C121" s="74"/>
@@ -13564,18 +13570,18 @@
       <c r="AA121" s="96"/>
       <c r="AB121" s="72"/>
     </row>
-    <row r="122" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="48" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B122" s="49" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C122" s="50" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D122" s="53" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E122" s="52" t="s">
         <v>25</v>
@@ -13603,10 +13609,10 @@
       <c r="Z122" s="58"/>
       <c r="AA122" s="95"/>
       <c r="AB122" s="48" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="123" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="72"/>
       <c r="B123" s="73"/>
       <c r="C123" s="74"/>
@@ -13636,18 +13642,18 @@
       <c r="AA123" s="96"/>
       <c r="AB123" s="72"/>
     </row>
-    <row r="124" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="B124" s="49" t="s">
+        <v>250</v>
+      </c>
+      <c r="C124" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="B124" s="49" t="s">
-        <v>253</v>
-      </c>
-      <c r="C124" s="50" t="s">
-        <v>254</v>
-      </c>
       <c r="D124" s="53" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E124" s="52" t="s">
         <v>27</v>
@@ -13659,22 +13665,22 @@
       <c r="J124" s="55"/>
       <c r="K124" s="56"/>
       <c r="L124" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M124" s="55" t="s">
         <v>25</v>
       </c>
       <c r="N124" s="55" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="O124" s="55"/>
       <c r="P124" s="55"/>
       <c r="Q124" s="55" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="R124" s="55"/>
       <c r="S124" s="57" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="T124" s="54"/>
       <c r="U124" s="57"/>
@@ -13685,10 +13691,10 @@
       <c r="Z124" s="58"/>
       <c r="AA124" s="95"/>
       <c r="AB124" s="48" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="125" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="72"/>
       <c r="B125" s="73"/>
       <c r="C125" s="74"/>
@@ -13718,7 +13724,7 @@
       <c r="AA125" s="96"/>
       <c r="AB125" s="72"/>
     </row>
-    <row r="126" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="48" t="s">
         <v>125</v>
       </c>
@@ -13741,20 +13747,20 @@
       <c r="J126" s="55"/>
       <c r="K126" s="56"/>
       <c r="L126" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M126" s="55" t="s">
         <v>25</v>
       </c>
       <c r="N126" s="55" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="O126" s="55"/>
       <c r="P126" s="57" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Q126" s="55" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="R126" s="55"/>
       <c r="S126" s="55"/>
@@ -13766,13 +13772,13 @@
       <c r="Y126" s="54"/>
       <c r="Z126" s="58"/>
       <c r="AA126" s="95" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AB126" s="48" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:28" s="59" customFormat="1" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="48" t="s">
         <v>125</v>
       </c>
@@ -13795,20 +13801,20 @@
       <c r="J127" s="55"/>
       <c r="K127" s="56"/>
       <c r="L127" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M127" s="55" t="s">
         <v>25</v>
       </c>
       <c r="N127" s="55" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="O127" s="55"/>
       <c r="P127" s="57" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Q127" s="55" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="R127" s="55"/>
       <c r="S127" s="55"/>
@@ -13820,13 +13826,13 @@
       <c r="Y127" s="54"/>
       <c r="Z127" s="58"/>
       <c r="AA127" s="95" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AB127" s="48" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="72"/>
       <c r="B128" s="73"/>
       <c r="C128" s="74"/>
@@ -13856,7 +13862,7 @@
       <c r="AA128" s="96"/>
       <c r="AB128" s="72"/>
     </row>
-    <row r="129" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="48" t="s">
         <v>106</v>
       </c>
@@ -13879,22 +13885,22 @@
       <c r="J129" s="55"/>
       <c r="K129" s="56"/>
       <c r="L129" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M129" s="55" t="s">
         <v>25</v>
       </c>
       <c r="N129" s="55" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="O129" s="55"/>
       <c r="P129" s="55"/>
       <c r="Q129" s="55" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="R129" s="55"/>
       <c r="S129" s="57" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="T129" s="54"/>
       <c r="U129" s="57"/>
@@ -13908,7 +13914,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="130" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="72"/>
       <c r="B130" s="73"/>
       <c r="C130" s="74"/>
@@ -13938,7 +13944,7 @@
       <c r="AA130" s="96"/>
       <c r="AB130" s="72"/>
     </row>
-    <row r="131" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="48" t="s">
         <v>107</v>
       </c>
@@ -13961,22 +13967,22 @@
       <c r="J131" s="55"/>
       <c r="K131" s="56"/>
       <c r="L131" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M131" s="55" t="s">
         <v>25</v>
       </c>
       <c r="N131" s="55" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="O131" s="55"/>
       <c r="P131" s="55"/>
       <c r="Q131" s="55" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="R131" s="55"/>
       <c r="S131" s="57" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="T131" s="54"/>
       <c r="U131" s="57"/>
@@ -13990,7 +13996,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="132" spans="1:28" s="59" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:28" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="72"/>
       <c r="B132" s="73"/>
       <c r="C132" s="74"/>
@@ -14020,15 +14026,15 @@
       <c r="AA132" s="96"/>
       <c r="AB132" s="72"/>
     </row>
-    <row r="133" spans="1:28" s="59" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:28" s="59" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A133" s="48" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B133" s="49" t="s">
         <v>96</v>
       </c>
       <c r="C133" s="50" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D133" s="53" t="s">
         <v>158</v>
@@ -14038,74 +14044,74 @@
       </c>
       <c r="F133" s="54"/>
       <c r="G133" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="H133" s="56" t="s">
         <v>289</v>
       </c>
-      <c r="H133" s="56" t="s">
-        <v>292</v>
-      </c>
       <c r="I133" s="54" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J133" s="55"/>
       <c r="K133" s="65" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L133" s="54" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M133" s="55" t="s">
         <v>26</v>
       </c>
       <c r="N133" s="55" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="O133" s="57" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="P133" s="55"/>
       <c r="Q133" s="55" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="R133" s="55" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="S133" s="55"/>
       <c r="T133" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="U133" s="57" t="s">
+        <v>360</v>
+      </c>
+      <c r="V133" s="58" t="s">
         <v>289</v>
-      </c>
-      <c r="U133" s="57" t="s">
-        <v>363</v>
-      </c>
-      <c r="V133" s="58" t="s">
-        <v>292</v>
       </c>
       <c r="W133" s="57"/>
       <c r="X133" s="58"/>
       <c r="Y133" s="54" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="Z133" s="58" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AA133" s="98" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AB133" s="48" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="134" spans="1:28" s="59" customFormat="1" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="48" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B134" s="49" t="s">
         <v>96</v>
       </c>
       <c r="C134" s="50" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D134" s="53" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E134" s="52" t="s">
         <v>25</v>
@@ -14117,23 +14123,23 @@
       <c r="J134" s="55"/>
       <c r="K134" s="56"/>
       <c r="L134" s="54" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M134" s="55" t="s">
         <v>26</v>
       </c>
       <c r="N134" s="57" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="O134" s="55"/>
       <c r="P134" s="55" t="s">
         <v>27</v>
       </c>
       <c r="Q134" s="55" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="R134" s="55" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="S134" s="55"/>
       <c r="T134" s="54"/>
@@ -14144,24 +14150,24 @@
       <c r="Y134" s="54"/>
       <c r="Z134" s="58"/>
       <c r="AA134" s="95" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AB134" s="48" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="135" spans="1:28" s="59" customFormat="1" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="48" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B135" s="49" t="s">
         <v>96</v>
       </c>
       <c r="C135" s="50" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D135" s="53" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E135" s="52" t="s">
         <v>25</v>
@@ -14173,21 +14179,21 @@
       <c r="J135" s="55"/>
       <c r="K135" s="56"/>
       <c r="L135" s="54" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M135" s="55" t="s">
         <v>26</v>
       </c>
       <c r="N135" s="57" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="O135" s="55"/>
       <c r="P135" s="55"/>
       <c r="Q135" s="55" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="R135" s="55" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="S135" s="55"/>
       <c r="T135" s="54"/>
@@ -14198,13 +14204,13 @@
       <c r="Y135" s="54"/>
       <c r="Z135" s="58"/>
       <c r="AA135" s="95" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AB135" s="48" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="136" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="48" t="s">
         <v>156</v>
       </c>
@@ -14221,20 +14227,20 @@
         <v>25</v>
       </c>
       <c r="F136" s="54" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G136" s="55" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H136" s="56" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I136" s="54" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J136" s="55"/>
       <c r="K136" s="56" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L136" s="54"/>
       <c r="M136" s="55"/>
@@ -14252,24 +14258,24 @@
       <c r="Y136" s="54"/>
       <c r="Z136" s="58"/>
       <c r="AA136" s="95" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="AB136" s="48" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="137" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="48" t="s">
         <v>156</v>
       </c>
       <c r="B137" s="49" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C137" s="50" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D137" s="53" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E137" s="52" t="s">
         <v>25</v>
@@ -14300,7 +14306,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="138" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="48" t="s">
         <v>157</v>
       </c>
@@ -14342,7 +14348,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="139" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="72"/>
       <c r="B139" s="73"/>
       <c r="C139" s="74"/>
@@ -14372,7 +14378,7 @@
       <c r="AA139" s="96"/>
       <c r="AB139" s="72"/>
     </row>
-    <row r="140" spans="1:28" s="59" customFormat="1" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="48" t="s">
         <v>117</v>
       </c>
@@ -14383,41 +14389,41 @@
         <v>120</v>
       </c>
       <c r="D140" s="51" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E140" s="50" t="s">
         <v>25</v>
       </c>
       <c r="F140" s="54"/>
       <c r="G140" s="55" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H140" s="56" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I140" s="54" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J140" s="55"/>
       <c r="K140" s="65" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L140" s="54" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M140" s="55" t="s">
         <v>26</v>
       </c>
       <c r="N140" s="55" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="O140" s="55"/>
       <c r="P140" s="55"/>
       <c r="Q140" s="55" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="R140" s="55" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="S140" s="55"/>
       <c r="T140" s="54"/>
@@ -14428,13 +14434,13 @@
       <c r="Y140" s="54"/>
       <c r="Z140" s="58"/>
       <c r="AA140" s="95" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="AB140" s="48" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="141" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="48" t="s">
         <v>117</v>
       </c>
@@ -14443,7 +14449,7 @@
       </c>
       <c r="C141" s="50"/>
       <c r="D141" s="53" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E141" s="66"/>
       <c r="F141" s="61"/>
@@ -14453,21 +14459,21 @@
       <c r="J141" s="57"/>
       <c r="K141" s="62"/>
       <c r="L141" s="61" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M141" s="57" t="s">
         <v>26</v>
       </c>
       <c r="N141" s="57" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="O141" s="57"/>
       <c r="P141" s="57"/>
       <c r="Q141" s="57" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="R141" s="57" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="S141" s="57"/>
       <c r="T141" s="61"/>
@@ -14478,13 +14484,13 @@
       <c r="Y141" s="61"/>
       <c r="Z141" s="58"/>
       <c r="AA141" s="95" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="AB141" s="48" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="142" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="48" t="s">
         <v>118</v>
       </c>
@@ -14501,20 +14507,20 @@
         <v>25</v>
       </c>
       <c r="F142" s="54" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G142" s="55" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H142" s="56" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I142" s="54" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J142" s="55"/>
       <c r="K142" s="56" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L142" s="54"/>
       <c r="M142" s="55"/>
@@ -14532,13 +14538,13 @@
       <c r="Y142" s="54"/>
       <c r="Z142" s="58"/>
       <c r="AA142" s="95" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="AB142" s="48" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="143" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="48" t="s">
         <v>119</v>
       </c>
@@ -14580,7 +14586,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="144" spans="1:28" s="59" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:28" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="72"/>
       <c r="B144" s="73"/>
       <c r="C144" s="74"/>
@@ -14610,92 +14616,92 @@
       <c r="AA144" s="96"/>
       <c r="AB144" s="72"/>
     </row>
-    <row r="145" spans="1:28" s="59" customFormat="1" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:28" s="59" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A145" s="48" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B145" s="49" t="s">
         <v>96</v>
       </c>
       <c r="C145" s="50" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D145" s="53" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E145" s="52" t="s">
         <v>25</v>
       </c>
       <c r="F145" s="54"/>
       <c r="G145" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="H145" s="56" t="s">
         <v>289</v>
       </c>
-      <c r="H145" s="56" t="s">
-        <v>292</v>
-      </c>
       <c r="I145" s="54" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J145" s="55"/>
       <c r="K145" s="65" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L145" s="54" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M145" s="55" t="s">
         <v>26</v>
       </c>
       <c r="N145" s="55" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="O145" s="57" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="P145" s="55"/>
       <c r="Q145" s="55" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="R145" s="55" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="S145" s="55"/>
       <c r="T145" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="U145" s="57" t="s">
+        <v>422</v>
+      </c>
+      <c r="V145" s="58" t="s">
         <v>289</v>
-      </c>
-      <c r="U145" s="57" t="s">
-        <v>428</v>
-      </c>
-      <c r="V145" s="58" t="s">
-        <v>292</v>
       </c>
       <c r="W145" s="57"/>
       <c r="X145" s="58"/>
       <c r="Y145" s="54" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="Z145" s="58" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AA145" s="98" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="AB145" s="48" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="146" spans="1:28" s="59" customFormat="1" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="48" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B146" s="49" t="s">
         <v>96</v>
       </c>
       <c r="C146" s="50" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D146" s="53" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E146" s="52" t="s">
         <v>25</v>
@@ -14707,23 +14713,23 @@
       <c r="J146" s="55"/>
       <c r="K146" s="56"/>
       <c r="L146" s="54" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M146" s="55" t="s">
         <v>26</v>
       </c>
       <c r="N146" s="57" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="O146" s="55"/>
       <c r="P146" s="55" t="s">
         <v>27</v>
       </c>
       <c r="Q146" s="55" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="R146" s="55" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="S146" s="55"/>
       <c r="T146" s="54"/>
@@ -14734,22 +14740,22 @@
       <c r="Y146" s="54"/>
       <c r="Z146" s="58"/>
       <c r="AA146" s="95" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AB146" s="48" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="147" spans="1:28" s="67" customFormat="1" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="147" spans="1:28" s="67" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="48" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B147" s="49" t="s">
         <v>96</v>
       </c>
       <c r="C147" s="50"/>
       <c r="D147" s="51" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E147" s="66"/>
       <c r="F147" s="54"/>
@@ -14759,21 +14765,21 @@
       <c r="J147" s="55"/>
       <c r="K147" s="56"/>
       <c r="L147" s="54" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M147" s="55" t="s">
         <v>26</v>
       </c>
       <c r="N147" s="55" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="O147" s="55"/>
       <c r="P147" s="55"/>
       <c r="Q147" s="55" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="R147" s="55" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="S147" s="55"/>
       <c r="T147" s="54"/>
@@ -14784,15 +14790,15 @@
       <c r="Y147" s="54"/>
       <c r="Z147" s="58"/>
       <c r="AA147" s="95" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AB147" s="48" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="148" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="48" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B148" s="49" t="s">
         <v>99</v>
@@ -14807,20 +14813,20 @@
         <v>25</v>
       </c>
       <c r="F148" s="54" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G148" s="55" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H148" s="56" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I148" s="54" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J148" s="55"/>
       <c r="K148" s="56" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L148" s="54"/>
       <c r="M148" s="55"/>
@@ -14838,15 +14844,15 @@
       <c r="Y148" s="54"/>
       <c r="Z148" s="58"/>
       <c r="AA148" s="95" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="AB148" s="48" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="149" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="48" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B149" s="49" t="s">
         <v>99</v>
@@ -14883,10 +14889,10 @@
       <c r="Z149" s="58"/>
       <c r="AA149" s="95"/>
       <c r="AB149" s="48" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="150" spans="1:28" s="59" customFormat="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="72"/>
       <c r="B150" s="73"/>
       <c r="C150" s="74"/>
@@ -14916,53 +14922,53 @@
       <c r="AA150" s="96"/>
       <c r="AB150" s="72"/>
     </row>
-    <row r="151" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="48" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B151" s="49" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C151" s="50" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D151" s="53" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E151" s="52" t="s">
         <v>27</v>
       </c>
       <c r="F151" s="54" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G151" s="55"/>
       <c r="H151" s="56" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I151" s="54" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="J151" s="55"/>
       <c r="K151" s="56" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L151" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M151" s="55" t="s">
         <v>25</v>
       </c>
       <c r="N151" s="55" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O151" s="55"/>
       <c r="P151" s="55"/>
       <c r="Q151" s="55" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="R151" s="55"/>
       <c r="S151" s="57" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="T151" s="54"/>
       <c r="U151" s="57"/>
@@ -14972,13 +14978,13 @@
       <c r="Y151" s="54"/>
       <c r="Z151" s="58"/>
       <c r="AA151" s="95" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="AB151" s="48" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="152" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="72"/>
       <c r="B152" s="73"/>
       <c r="C152" s="74"/>
@@ -15008,49 +15014,49 @@
       <c r="AA152" s="96"/>
       <c r="AB152" s="72"/>
     </row>
-    <row r="153" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="B153" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="B153" s="49" t="s">
-        <v>187</v>
-      </c>
       <c r="C153" s="50" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D153" s="53" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E153" s="52" t="s">
         <v>25</v>
       </c>
       <c r="F153" s="54" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G153" s="55"/>
       <c r="H153" s="56" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I153" s="54" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J153" s="55"/>
       <c r="K153" s="56" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L153" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M153" s="55" t="s">
         <v>25</v>
       </c>
       <c r="N153" s="57" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="O153" s="55"/>
       <c r="P153" s="55"/>
       <c r="Q153" s="55" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="R153" s="55"/>
       <c r="S153" s="55"/>
@@ -15062,24 +15068,24 @@
       <c r="Y153" s="54"/>
       <c r="Z153" s="58"/>
       <c r="AA153" s="95" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="AB153" s="48" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="B154" s="49" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="154" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="B154" s="49" t="s">
-        <v>187</v>
-      </c>
       <c r="C154" s="50" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D154" s="53" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E154" s="50" t="s">
         <v>25</v>
@@ -15091,18 +15097,18 @@
       <c r="J154" s="55"/>
       <c r="K154" s="56"/>
       <c r="L154" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M154" s="55" t="s">
         <v>25</v>
       </c>
       <c r="N154" s="57" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="O154" s="55"/>
       <c r="P154" s="55"/>
       <c r="Q154" s="55" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="R154" s="55"/>
       <c r="S154" s="55"/>
@@ -15115,10 +15121,10 @@
       <c r="Z154" s="58"/>
       <c r="AA154" s="95"/>
       <c r="AB154" s="48" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="155" spans="1:28" s="59" customFormat="1" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="155" spans="1:28" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="72"/>
       <c r="B155" s="73"/>
       <c r="C155" s="74"/>
@@ -15148,36 +15154,36 @@
       <c r="AA155" s="96"/>
       <c r="AB155" s="72"/>
     </row>
-    <row r="156" spans="1:28" s="59" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:28" s="59" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A156" s="48" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B156" s="49" t="s">
-        <v>180</v>
+        <v>425</v>
       </c>
       <c r="C156" s="50" t="s">
-        <v>183</v>
+        <v>427</v>
       </c>
       <c r="D156" s="53" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="E156" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="F156" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="G156" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="H156" s="56" t="s">
         <v>295</v>
-      </c>
-      <c r="F156" s="54" t="s">
-        <v>289</v>
-      </c>
-      <c r="G156" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="H156" s="56" t="s">
-        <v>298</v>
       </c>
       <c r="I156" s="54"/>
       <c r="J156" s="55"/>
       <c r="K156" s="56"/>
       <c r="L156" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M156" s="55" t="s">
         <v>25</v>
@@ -15188,31 +15194,31 @@
       <c r="O156" s="55"/>
       <c r="P156" s="55"/>
       <c r="Q156" s="55" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="R156" s="55"/>
       <c r="S156" s="55"/>
       <c r="T156" s="54" t="s">
-        <v>289</v>
+        <v>431</v>
       </c>
       <c r="U156" s="57" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="V156" s="58" t="s">
-        <v>339</v>
+        <v>433</v>
       </c>
       <c r="W156" s="57"/>
       <c r="X156" s="58"/>
       <c r="Y156" s="54"/>
       <c r="Z156" s="58"/>
       <c r="AA156" s="95" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="AB156" s="48" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="157" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="72"/>
       <c r="B157" s="73"/>
       <c r="C157" s="74"/>
@@ -15242,51 +15248,51 @@
       <c r="AA157" s="96"/>
       <c r="AB157" s="72"/>
     </row>
-    <row r="158" spans="1:28" s="59" customFormat="1" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:28" s="59" customFormat="1" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="48" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B158" s="49" t="s">
         <v>180</v>
       </c>
       <c r="C158" s="50" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D158" s="53" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E158" s="52" t="s">
         <v>25</v>
       </c>
       <c r="F158" s="54" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G158" s="55"/>
       <c r="H158" s="56" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I158" s="54" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J158" s="55"/>
       <c r="K158" s="56" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L158" s="54" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M158" s="55" t="s">
         <v>26</v>
       </c>
       <c r="N158" s="55" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="O158" s="55"/>
       <c r="P158" s="55" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Q158" s="55" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="R158" s="55"/>
       <c r="S158" s="55"/>
@@ -15298,13 +15304,13 @@
       <c r="Y158" s="54"/>
       <c r="Z158" s="58"/>
       <c r="AA158" s="95" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="AB158" s="48" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="159" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="159" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="72"/>
       <c r="B159" s="73"/>
       <c r="C159" s="74"/>
@@ -15334,51 +15340,51 @@
       <c r="AA159" s="96"/>
       <c r="AB159" s="72"/>
     </row>
-    <row r="160" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="48" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B160" s="49" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C160" s="50" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D160" s="53" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E160" s="52" t="s">
         <v>25</v>
       </c>
       <c r="F160" s="54" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G160" s="55"/>
       <c r="H160" s="56" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I160" s="54" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J160" s="55"/>
       <c r="K160" s="56" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L160" s="54" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M160" s="55" t="s">
         <v>26</v>
       </c>
       <c r="N160" s="55" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O160" s="55"/>
       <c r="P160" s="55" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Q160" s="55" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="R160" s="55"/>
       <c r="S160" s="55"/>
@@ -15390,53 +15396,53 @@
       <c r="Y160" s="54"/>
       <c r="Z160" s="58"/>
       <c r="AA160" s="95" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="AB160" s="48" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="161" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="161" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="48" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B161" s="49" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C161" s="50" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D161" s="53" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E161" s="52" t="s">
         <v>25</v>
       </c>
       <c r="F161" s="54" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G161" s="55"/>
       <c r="H161" s="56" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I161" s="54"/>
       <c r="J161" s="55"/>
       <c r="K161" s="56"/>
       <c r="L161" s="54" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M161" s="55" t="s">
         <v>26</v>
       </c>
       <c r="N161" s="55" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O161" s="55"/>
       <c r="P161" s="55" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Q161" s="55" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="R161" s="55"/>
       <c r="S161" s="55"/>
@@ -15448,13 +15454,13 @@
       <c r="Y161" s="54"/>
       <c r="Z161" s="58"/>
       <c r="AA161" s="95" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="AB161" s="48" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="162" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="162" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="72"/>
       <c r="B162" s="73"/>
       <c r="C162" s="74"/>
@@ -15484,7 +15490,7 @@
       <c r="AA162" s="96"/>
       <c r="AB162" s="72"/>
     </row>
-    <row r="163" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="48" t="s">
         <v>98</v>
       </c>
@@ -15526,7 +15532,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="164" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="72"/>
       <c r="B164" s="73"/>
       <c r="C164" s="74"/>
@@ -15556,7 +15562,7 @@
       <c r="AA164" s="96"/>
       <c r="AB164" s="72"/>
     </row>
-    <row r="165" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="48" t="s">
         <v>132</v>
       </c>
@@ -15579,18 +15585,18 @@
       <c r="J165" s="55"/>
       <c r="K165" s="56"/>
       <c r="L165" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M165" s="55" t="s">
         <v>25</v>
       </c>
       <c r="N165" s="55"/>
       <c r="O165" s="57" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P165" s="55"/>
       <c r="Q165" s="55" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="R165" s="55"/>
       <c r="S165" s="55"/>
@@ -15606,7 +15612,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="166" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="72"/>
       <c r="B166" s="73"/>
       <c r="C166" s="74"/>
@@ -15636,7 +15642,7 @@
       <c r="AA166" s="96"/>
       <c r="AB166" s="72"/>
     </row>
-    <row r="167" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="48" t="s">
         <v>136</v>
       </c>
@@ -15659,20 +15665,20 @@
       <c r="J167" s="55"/>
       <c r="K167" s="56"/>
       <c r="L167" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M167" s="55" t="s">
         <v>25</v>
       </c>
       <c r="N167" s="55" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O167" s="55" t="s">
         <v>25</v>
       </c>
       <c r="P167" s="55"/>
       <c r="Q167" s="55" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="R167" s="55"/>
       <c r="S167" s="55"/>
@@ -15688,7 +15694,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="168" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="72"/>
       <c r="B168" s="73"/>
       <c r="C168" s="74"/>
@@ -15718,7 +15724,7 @@
       <c r="AA168" s="96"/>
       <c r="AB168" s="72"/>
     </row>
-    <row r="169" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="48" t="s">
         <v>129</v>
       </c>
@@ -15741,24 +15747,24 @@
       <c r="J169" s="55"/>
       <c r="K169" s="56"/>
       <c r="L169" s="54" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M169" s="55" t="s">
         <v>26</v>
       </c>
       <c r="N169" s="55" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="O169" s="55" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P169" s="55"/>
       <c r="Q169" s="55" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="R169" s="55"/>
       <c r="S169" s="55" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="T169" s="54"/>
       <c r="U169" s="57"/>
@@ -15772,7 +15778,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="170" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="72"/>
       <c r="B170" s="73"/>
       <c r="C170" s="74"/>
@@ -15802,7 +15808,7 @@
       <c r="AA170" s="96"/>
       <c r="AB170" s="72"/>
     </row>
-    <row r="171" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="48" t="s">
         <v>94</v>
       </c>
@@ -15825,20 +15831,20 @@
       <c r="J171" s="55"/>
       <c r="K171" s="56"/>
       <c r="L171" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M171" s="55" t="s">
         <v>25</v>
       </c>
       <c r="N171" s="55" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="O171" s="55" t="s">
         <v>25</v>
       </c>
       <c r="P171" s="55"/>
       <c r="Q171" s="55" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="R171" s="55"/>
       <c r="S171" s="55"/>
@@ -15854,7 +15860,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="172" spans="1:28" s="59" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:28" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="72"/>
       <c r="B172" s="73"/>
       <c r="C172" s="74"/>
@@ -15884,73 +15890,73 @@
       <c r="AA172" s="96"/>
       <c r="AB172" s="72"/>
     </row>
-    <row r="173" spans="1:28" s="59" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:28" s="59" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A173" s="48" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B173" s="49" t="s">
-        <v>180</v>
+        <v>425</v>
       </c>
       <c r="C173" s="50" t="s">
-        <v>181</v>
+        <v>428</v>
       </c>
       <c r="D173" s="53" t="s">
-        <v>182</v>
+        <v>429</v>
       </c>
       <c r="E173" s="52" t="s">
         <v>150</v>
       </c>
       <c r="F173" s="61" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G173" s="57" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H173" s="62" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I173" s="61"/>
       <c r="J173" s="57"/>
       <c r="K173" s="62"/>
       <c r="L173" s="61" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M173" s="57" t="s">
         <v>25</v>
       </c>
       <c r="N173" s="57" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O173" s="57"/>
       <c r="P173" s="57"/>
       <c r="Q173" s="57" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="R173" s="57"/>
       <c r="S173" s="57" t="s">
-        <v>324</v>
-      </c>
-      <c r="T173" s="61" t="s">
-        <v>289</v>
+        <v>321</v>
+      </c>
+      <c r="T173" s="54" t="s">
+        <v>431</v>
       </c>
       <c r="U173" s="57" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="V173" s="58" t="s">
-        <v>339</v>
+        <v>433</v>
       </c>
       <c r="W173" s="57"/>
       <c r="X173" s="58"/>
       <c r="Y173" s="61"/>
       <c r="Z173" s="58"/>
       <c r="AA173" s="95" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="AB173" s="48" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="72"/>
       <c r="B174" s="73"/>
       <c r="C174" s="74"/>
@@ -15980,7 +15986,7 @@
       <c r="AA174" s="96"/>
       <c r="AB174" s="72"/>
     </row>
-    <row r="175" spans="1:28" s="59" customFormat="1" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:28" s="59" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="48" t="s">
         <v>144</v>
       </c>
@@ -16003,21 +16009,21 @@
       <c r="J175" s="55"/>
       <c r="K175" s="56"/>
       <c r="L175" s="54" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M175" s="55" t="s">
         <v>26</v>
       </c>
       <c r="N175" s="55" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="O175" s="55"/>
       <c r="P175" s="55"/>
       <c r="Q175" s="55" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="R175" s="55" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="S175" s="55"/>
       <c r="T175" s="54"/>
@@ -16028,13 +16034,13 @@
       <c r="Y175" s="54"/>
       <c r="Z175" s="58"/>
       <c r="AA175" s="95" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="AB175" s="48" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="176" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="72"/>
       <c r="B176" s="73"/>
       <c r="C176" s="74"/>
@@ -16064,7 +16070,7 @@
       <c r="AA176" s="96"/>
       <c r="AB176" s="72"/>
     </row>
-    <row r="177" spans="1:28" s="59" customFormat="1" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="48" t="s">
         <v>171</v>
       </c>
@@ -16098,21 +16104,21 @@
       <c r="U177" s="57"/>
       <c r="V177" s="58"/>
       <c r="W177" s="57" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="X177" s="58" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="Y177" s="54"/>
       <c r="Z177" s="58"/>
       <c r="AA177" s="95" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AB177" s="48" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="178" spans="1:28" s="59" customFormat="1" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="48" t="s">
         <v>170</v>
       </c>
@@ -16146,21 +16152,21 @@
       <c r="U178" s="57"/>
       <c r="V178" s="58"/>
       <c r="W178" s="57" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="X178" s="58" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="Y178" s="54"/>
       <c r="Z178" s="58"/>
       <c r="AA178" s="95" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AB178" s="48" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="179" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="72"/>
       <c r="B179" s="73"/>
       <c r="C179" s="74"/>
@@ -16190,18 +16196,18 @@
       <c r="AA179" s="96"/>
       <c r="AB179" s="72"/>
     </row>
-    <row r="180" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="48" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B180" s="49" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C180" s="50" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D180" s="53" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E180" s="50" t="s">
         <v>25</v>
@@ -16213,24 +16219,24 @@
       <c r="J180" s="55"/>
       <c r="K180" s="56"/>
       <c r="L180" s="61" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M180" s="57" t="s">
         <v>26</v>
       </c>
       <c r="N180" s="57" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="O180" s="57" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="P180" s="57"/>
       <c r="Q180" s="57" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="R180" s="57"/>
       <c r="S180" s="57" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="T180" s="54"/>
       <c r="U180" s="57"/>
@@ -16241,10 +16247,10 @@
       <c r="Z180" s="58"/>
       <c r="AA180" s="95"/>
       <c r="AB180" s="48" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="181" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="181" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="72"/>
       <c r="B181" s="73"/>
       <c r="C181" s="74"/>
@@ -16274,9 +16280,9 @@
       <c r="AA181" s="96"/>
       <c r="AB181" s="72"/>
     </row>
-    <row r="182" spans="1:28" s="59" customFormat="1" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:28" s="59" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="48" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B182" s="49" t="s">
         <v>175</v>
@@ -16291,60 +16297,60 @@
         <v>28</v>
       </c>
       <c r="F182" s="54" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G182" s="55"/>
       <c r="H182" s="56" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I182" s="63" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J182" s="64"/>
       <c r="K182" s="65" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L182" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M182" s="55" t="s">
         <v>25</v>
       </c>
       <c r="N182" s="55" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="O182" s="55"/>
       <c r="P182" s="55" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="Q182" s="55" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="R182" s="55"/>
       <c r="S182" s="55" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="T182" s="54" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="U182" s="57" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="V182" s="58" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="W182" s="57"/>
       <c r="X182" s="58"/>
       <c r="Y182" s="54"/>
       <c r="Z182" s="58"/>
       <c r="AA182" s="98" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="AB182" s="48" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="183" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="72"/>
       <c r="B183" s="73"/>
       <c r="C183" s="74"/>
@@ -16374,15 +16380,15 @@
       <c r="AA183" s="96"/>
       <c r="AB183" s="72"/>
     </row>
-    <row r="184" spans="1:28" s="59" customFormat="1" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="48" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B184" s="49" t="s">
         <v>149</v>
       </c>
       <c r="C184" s="50" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D184" s="53" t="s">
         <v>148</v>
@@ -16397,7 +16403,7 @@
       <c r="J184" s="55"/>
       <c r="K184" s="56"/>
       <c r="L184" s="54" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M184" s="55" t="s">
         <v>26</v>
@@ -16405,10 +16411,10 @@
       <c r="N184" s="55"/>
       <c r="O184" s="55"/>
       <c r="P184" s="55" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="Q184" s="55" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="R184" s="55"/>
       <c r="S184" s="55"/>
@@ -16420,13 +16426,13 @@
       <c r="Y184" s="54"/>
       <c r="Z184" s="58"/>
       <c r="AA184" s="95" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AB184" s="48" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="185" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="72"/>
       <c r="B185" s="73"/>
       <c r="C185" s="74"/>
@@ -16456,9 +16462,9 @@
       <c r="AA185" s="96"/>
       <c r="AB185" s="72"/>
     </row>
-    <row r="186" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="48" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B186" s="49" t="s">
         <v>77</v>
@@ -16467,7 +16473,7 @@
         <v>78</v>
       </c>
       <c r="D186" s="53" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E186" s="50" t="s">
         <v>27</v>
@@ -16479,7 +16485,7 @@
       <c r="J186" s="55"/>
       <c r="K186" s="56"/>
       <c r="L186" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M186" s="57" t="s">
         <v>25</v>
@@ -16490,7 +16496,7 @@
       <c r="O186" s="57"/>
       <c r="P186" s="57"/>
       <c r="Q186" s="57" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="R186" s="57"/>
       <c r="S186" s="57"/>
@@ -16503,10 +16509,10 @@
       <c r="Z186" s="58"/>
       <c r="AA186" s="95"/>
       <c r="AB186" s="48" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="187" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="187" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="72"/>
       <c r="B187" s="73"/>
       <c r="C187" s="74"/>
@@ -16536,18 +16542,18 @@
       <c r="AA187" s="96"/>
       <c r="AB187" s="72"/>
     </row>
-    <row r="188" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="B188" s="49" t="s">
+        <v>283</v>
+      </c>
+      <c r="C188" s="50" t="s">
         <v>284</v>
       </c>
-      <c r="B188" s="49" t="s">
-        <v>286</v>
-      </c>
-      <c r="C188" s="50" t="s">
-        <v>287</v>
-      </c>
       <c r="D188" s="53" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E188" s="66" t="s">
         <v>26</v>
@@ -16575,10 +16581,10 @@
       <c r="Z188" s="58"/>
       <c r="AA188" s="95"/>
       <c r="AB188" s="48" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="189" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="189" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="72"/>
       <c r="B189" s="73"/>
       <c r="C189" s="74"/>
@@ -16608,18 +16614,18 @@
       <c r="AA189" s="96"/>
       <c r="AB189" s="72"/>
     </row>
-    <row r="190" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="B190" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="C190" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="D190" s="53" t="s">
         <v>278</v>
-      </c>
-      <c r="B190" s="49" t="s">
-        <v>279</v>
-      </c>
-      <c r="C190" s="50" t="s">
-        <v>280</v>
-      </c>
-      <c r="D190" s="53" t="s">
-        <v>281</v>
       </c>
       <c r="E190" s="66" t="s">
         <v>25</v>
@@ -16631,7 +16637,7 @@
       <c r="J190" s="55"/>
       <c r="K190" s="56"/>
       <c r="L190" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M190" s="57" t="s">
         <v>25</v>
@@ -16642,7 +16648,7 @@
       <c r="O190" s="57"/>
       <c r="P190" s="57"/>
       <c r="Q190" s="57" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="R190" s="55"/>
       <c r="S190" s="55"/>
@@ -16655,10 +16661,10 @@
       <c r="Z190" s="58"/>
       <c r="AA190" s="95"/>
       <c r="AB190" s="48" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="191" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="191" spans="1:28" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="72"/>
       <c r="B191" s="73"/>
       <c r="C191" s="74"/>
@@ -16688,18 +16694,18 @@
       <c r="AA191" s="96"/>
       <c r="AB191" s="72"/>
     </row>
-    <row r="192" spans="1:28" s="59" customFormat="1" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:28" s="59" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="B192" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="C192" s="86" t="s">
+        <v>267</v>
+      </c>
+      <c r="D192" s="53" t="s">
         <v>268</v>
-      </c>
-      <c r="B192" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="C192" s="86" t="s">
-        <v>270</v>
-      </c>
-      <c r="D192" s="53" t="s">
-        <v>271</v>
       </c>
       <c r="E192" s="50" t="s">
         <v>28</v>
@@ -16711,7 +16717,7 @@
       <c r="J192" s="55"/>
       <c r="K192" s="56"/>
       <c r="L192" s="54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M192" s="55" t="s">
         <v>25</v>
@@ -16722,7 +16728,7 @@
       <c r="O192" s="57"/>
       <c r="P192" s="57"/>
       <c r="Q192" s="57" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="R192" s="55"/>
       <c r="S192" s="55"/>
@@ -16735,10 +16741,10 @@
       <c r="Z192" s="58"/>
       <c r="AA192" s="97"/>
       <c r="AB192" s="48" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="193" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="193" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="22"/>
       <c r="B193" s="23"/>
       <c r="C193" s="41"/>
@@ -16768,7 +16774,7 @@
       <c r="AA193" s="94"/>
       <c r="AB193" s="22"/>
     </row>
-    <row r="194" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="22"/>
       <c r="B194" s="23"/>
       <c r="C194" s="41"/>
